--- a/client/test-data/bwwc.xlsx
+++ b/client/test-data/bwwc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hishii/Desktop/Project_web-mpc/web-mpc/test/selenium/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frascog/Software/bwwc/client/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414FA59E-8CB6-FE4D-952B-F564E397C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58490F-2AA1-464C-B4CC-C8F145F5EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="19920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enter Data →" sheetId="19" r:id="rId1"/>
@@ -672,16 +672,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -707,6 +697,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2150,12 +2150,12 @@
     <mergeCell ref="T5:V5"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:X16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7:Y16">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2181,10 +2181,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:Y15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2255,10 +2255,8 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2275,207 +2273,160 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28" t="s">
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28" t="s">
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="29"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="14" t="s">
+      <c r="X5" s="28"/>
+      <c r="Y5" s="29"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="10">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10">
-        <v>100</v>
-      </c>
-      <c r="D6" s="10">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10">
-        <v>100</v>
-      </c>
-      <c r="F6" s="10">
-        <v>100</v>
-      </c>
-      <c r="G6" s="10">
-        <v>100</v>
-      </c>
-      <c r="H6" s="10">
-        <v>100</v>
-      </c>
-      <c r="I6" s="10">
-        <v>100</v>
-      </c>
-      <c r="J6" s="10">
-        <v>100</v>
-      </c>
-      <c r="K6" s="10">
-        <v>100</v>
-      </c>
-      <c r="L6" s="10">
-        <v>100</v>
-      </c>
-      <c r="M6" s="10">
-        <v>100</v>
-      </c>
-      <c r="N6" s="10">
-        <v>100</v>
-      </c>
-      <c r="O6" s="10">
-        <v>100</v>
-      </c>
-      <c r="P6" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>100</v>
-      </c>
-      <c r="R6" s="10">
-        <v>100</v>
-      </c>
-      <c r="S6" s="10">
-        <v>100</v>
-      </c>
-      <c r="T6" s="10">
-        <v>100</v>
-      </c>
-      <c r="U6" s="10">
-        <v>100</v>
-      </c>
-      <c r="V6" s="10">
-        <v>100</v>
-      </c>
-      <c r="W6" s="10">
-        <v>100</v>
-      </c>
-      <c r="X6" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="10">
         <v>100</v>
@@ -2552,7 +2503,7 @@
     </row>
     <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10">
         <v>100</v>
@@ -2629,7 +2580,7 @@
     </row>
     <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="10">
         <v>100</v>
@@ -2706,7 +2657,7 @@
     </row>
     <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10">
         <v>100</v>
@@ -2783,7 +2734,7 @@
     </row>
     <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>100</v>
@@ -2860,7 +2811,7 @@
     </row>
     <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10">
         <v>100</v>
@@ -2937,7 +2888,7 @@
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="10">
         <v>100</v>
@@ -3014,198 +2965,275 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>100</v>
+      </c>
+      <c r="C14" s="10">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10">
+        <v>100</v>
+      </c>
+      <c r="E14" s="10">
+        <v>100</v>
+      </c>
+      <c r="F14" s="10">
+        <v>100</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10">
+        <v>100</v>
+      </c>
+      <c r="I14" s="10">
+        <v>100</v>
+      </c>
+      <c r="J14" s="10">
+        <v>100</v>
+      </c>
+      <c r="K14" s="10">
+        <v>100</v>
+      </c>
+      <c r="L14" s="10">
+        <v>100</v>
+      </c>
+      <c r="M14" s="10">
+        <v>100</v>
+      </c>
+      <c r="N14" s="10">
+        <v>100</v>
+      </c>
+      <c r="O14" s="10">
+        <v>100</v>
+      </c>
+      <c r="P14" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>100</v>
+      </c>
+      <c r="R14" s="10">
+        <v>100</v>
+      </c>
+      <c r="S14" s="10">
+        <v>100</v>
+      </c>
+      <c r="T14" s="10">
+        <v>100</v>
+      </c>
+      <c r="U14" s="10">
+        <v>100</v>
+      </c>
+      <c r="V14" s="10">
+        <v>100</v>
+      </c>
+      <c r="W14" s="10">
+        <v>100</v>
+      </c>
+      <c r="X14" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10">
-        <v>100</v>
-      </c>
-      <c r="C14" s="10">
-        <v>100</v>
-      </c>
-      <c r="D14" s="10">
-        <v>100</v>
-      </c>
-      <c r="E14" s="10">
-        <v>100</v>
-      </c>
-      <c r="F14" s="10">
-        <v>100</v>
-      </c>
-      <c r="G14" s="10">
-        <v>100</v>
-      </c>
-      <c r="H14" s="10">
-        <v>100</v>
-      </c>
-      <c r="I14" s="10">
-        <v>100</v>
-      </c>
-      <c r="J14" s="10">
-        <v>100</v>
-      </c>
-      <c r="K14" s="10">
-        <v>100</v>
-      </c>
-      <c r="L14" s="10">
-        <v>100</v>
-      </c>
-      <c r="M14" s="10">
-        <v>100</v>
-      </c>
-      <c r="N14" s="10">
-        <v>100</v>
-      </c>
-      <c r="O14" s="10">
-        <v>100</v>
-      </c>
-      <c r="P14" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>100</v>
-      </c>
-      <c r="R14" s="10">
-        <v>100</v>
-      </c>
-      <c r="S14" s="10">
-        <v>100</v>
-      </c>
-      <c r="T14" s="10">
-        <v>100</v>
-      </c>
-      <c r="U14" s="10">
-        <v>100</v>
-      </c>
-      <c r="V14" s="10">
-        <v>100</v>
-      </c>
-      <c r="W14" s="10">
-        <v>100</v>
-      </c>
-      <c r="X14" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="10">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="10">
+        <v>100</v>
+      </c>
+      <c r="F15" s="10">
+        <v>100</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100</v>
+      </c>
+      <c r="H15" s="10">
+        <v>100</v>
+      </c>
+      <c r="I15" s="10">
+        <v>100</v>
+      </c>
+      <c r="J15" s="10">
+        <v>100</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+      <c r="L15" s="10">
+        <v>100</v>
+      </c>
+      <c r="M15" s="10">
+        <v>100</v>
+      </c>
+      <c r="N15" s="10">
+        <v>100</v>
+      </c>
+      <c r="O15" s="10">
+        <v>100</v>
+      </c>
+      <c r="P15" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>100</v>
+      </c>
+      <c r="R15" s="10">
+        <v>100</v>
+      </c>
+      <c r="S15" s="10">
+        <v>100</v>
+      </c>
+      <c r="T15" s="10">
+        <v>100</v>
+      </c>
+      <c r="U15" s="10">
+        <v>100</v>
+      </c>
+      <c r="V15" s="10">
+        <v>100</v>
+      </c>
+      <c r="W15" s="10">
+        <v>100</v>
+      </c>
+      <c r="X15" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="25">
-        <v>100</v>
-      </c>
-      <c r="C15" s="25">
-        <v>100</v>
-      </c>
-      <c r="D15" s="25">
-        <v>100</v>
-      </c>
-      <c r="E15" s="25">
-        <v>100</v>
-      </c>
-      <c r="F15" s="25">
-        <v>100</v>
-      </c>
-      <c r="G15" s="25">
-        <v>100</v>
-      </c>
-      <c r="H15" s="25">
-        <v>100</v>
-      </c>
-      <c r="I15" s="25">
-        <v>100</v>
-      </c>
-      <c r="J15" s="25">
-        <v>100</v>
-      </c>
-      <c r="K15" s="25">
-        <v>100</v>
-      </c>
-      <c r="L15" s="25">
-        <v>100</v>
-      </c>
-      <c r="M15" s="25">
-        <v>100</v>
-      </c>
-      <c r="N15" s="25">
-        <v>100</v>
-      </c>
-      <c r="O15" s="25">
-        <v>100</v>
-      </c>
-      <c r="P15" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>100</v>
-      </c>
-      <c r="R15" s="25">
-        <v>100</v>
-      </c>
-      <c r="S15" s="25">
-        <v>100</v>
-      </c>
-      <c r="T15" s="25">
-        <v>100</v>
-      </c>
-      <c r="U15" s="25">
-        <v>100</v>
-      </c>
-      <c r="V15" s="25">
-        <v>100</v>
-      </c>
-      <c r="W15" s="25">
-        <v>100</v>
-      </c>
-      <c r="X15" s="25">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B16" s="25">
+        <v>100</v>
+      </c>
+      <c r="C16" s="25">
+        <v>100</v>
+      </c>
+      <c r="D16" s="25">
+        <v>100</v>
+      </c>
+      <c r="E16" s="25">
+        <v>100</v>
+      </c>
+      <c r="F16" s="25">
+        <v>100</v>
+      </c>
+      <c r="G16" s="25">
+        <v>100</v>
+      </c>
+      <c r="H16" s="25">
+        <v>100</v>
+      </c>
+      <c r="I16" s="25">
+        <v>100</v>
+      </c>
+      <c r="J16" s="25">
+        <v>100</v>
+      </c>
+      <c r="K16" s="25">
+        <v>100</v>
+      </c>
+      <c r="L16" s="25">
+        <v>100</v>
+      </c>
+      <c r="M16" s="25">
+        <v>100</v>
+      </c>
+      <c r="N16" s="25">
+        <v>100</v>
+      </c>
+      <c r="O16" s="25">
+        <v>100</v>
+      </c>
+      <c r="P16" s="25">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>100</v>
+      </c>
+      <c r="R16" s="25">
+        <v>100</v>
+      </c>
+      <c r="S16" s="25">
+        <v>100</v>
+      </c>
+      <c r="T16" s="25">
+        <v>100</v>
+      </c>
+      <c r="U16" s="25">
+        <v>100</v>
+      </c>
+      <c r="V16" s="25">
+        <v>100</v>
+      </c>
+      <c r="W16" s="25">
+        <v>100</v>
+      </c>
+      <c r="X16" s="25">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:X15">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B7:X16">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y15">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="Y7:Y16">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Female Employees" prompt="Please input the total number of female employees in this race/ethnicity and job category" sqref="N6:N15 K6:K15 H6:H15 E6:E15 B6:B15 W6:W15 T6:T15 Q6:Q15" xr:uid="{1E8F5A9B-FF8A-3545-A829-DDF96C0C5814}">
-      <formula1>ISNUMBER(B6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Female Employees" prompt="Please input the total number of female employees in this race/ethnicity and job category" sqref="N7:N16 K7:K16 H7:H16 E7:E16 B7:B16 W7:W16 T7:T16 Q7:Q16" xr:uid="{1E8F5A9B-FF8A-3545-A829-DDF96C0C5814}">
+      <formula1>ISNUMBER(B7)=TRUE</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of male employees in this race/ethnicity and job category" sqref="I6:J15 C6:D15 F6:G15 L6:M15 R6:S15 O6:P15 U6:V15 Y6:Y15" xr:uid="{6256BB76-F5C6-064E-90C6-BACFB7DF7FAE}">
-      <formula1>ISNUMBER(C6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of male employees in this race/ethnicity and job category" sqref="I7:J16 C7:D16 F7:G16 L7:M16 R7:S16 O7:P16 U7:V16 Y7:Y16" xr:uid="{6256BB76-F5C6-064E-90C6-BACFB7DF7FAE}">
+      <formula1>ISNUMBER(C7)=TRUE</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of Male employees in this race/ethnicity and job category" sqref="X6:X15" xr:uid="{F43FAD80-B58A-E14B-A7B5-E77BBDA32E93}">
-      <formula1>ISNUMBER(X6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of Male employees in this race/ethnicity and job category" sqref="X7:X16" xr:uid="{F43FAD80-B58A-E14B-A7B5-E77BBDA32E93}">
+      <formula1>ISNUMBER(X7)=TRUE</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -3219,10 +3247,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:Y15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3293,10 +3321,8 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3313,207 +3339,160 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28" t="s">
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28" t="s">
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="29"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="14" t="s">
+      <c r="X5" s="28"/>
+      <c r="Y5" s="29"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="10">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10">
-        <v>100</v>
-      </c>
-      <c r="D6" s="10">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10">
-        <v>100</v>
-      </c>
-      <c r="F6" s="10">
-        <v>100</v>
-      </c>
-      <c r="G6" s="10">
-        <v>100</v>
-      </c>
-      <c r="H6" s="10">
-        <v>100</v>
-      </c>
-      <c r="I6" s="10">
-        <v>100</v>
-      </c>
-      <c r="J6" s="10">
-        <v>100</v>
-      </c>
-      <c r="K6" s="10">
-        <v>100</v>
-      </c>
-      <c r="L6" s="10">
-        <v>100</v>
-      </c>
-      <c r="M6" s="10">
-        <v>100</v>
-      </c>
-      <c r="N6" s="10">
-        <v>100</v>
-      </c>
-      <c r="O6" s="10">
-        <v>100</v>
-      </c>
-      <c r="P6" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>100</v>
-      </c>
-      <c r="R6" s="10">
-        <v>100</v>
-      </c>
-      <c r="S6" s="10">
-        <v>100</v>
-      </c>
-      <c r="T6" s="10">
-        <v>100</v>
-      </c>
-      <c r="U6" s="10">
-        <v>100</v>
-      </c>
-      <c r="V6" s="10">
-        <v>100</v>
-      </c>
-      <c r="W6" s="10">
-        <v>100</v>
-      </c>
-      <c r="X6" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="10">
         <v>100</v>
@@ -3590,7 +3569,7 @@
     </row>
     <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10">
         <v>100</v>
@@ -3667,7 +3646,7 @@
     </row>
     <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="10">
         <v>100</v>
@@ -3744,7 +3723,7 @@
     </row>
     <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10">
         <v>100</v>
@@ -3821,7 +3800,7 @@
     </row>
     <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>100</v>
@@ -3898,7 +3877,7 @@
     </row>
     <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10">
         <v>100</v>
@@ -3975,7 +3954,7 @@
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="10">
         <v>100</v>
@@ -4052,198 +4031,275 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>100</v>
+      </c>
+      <c r="C14" s="10">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10">
+        <v>100</v>
+      </c>
+      <c r="E14" s="10">
+        <v>100</v>
+      </c>
+      <c r="F14" s="10">
+        <v>100</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10">
+        <v>100</v>
+      </c>
+      <c r="I14" s="10">
+        <v>100</v>
+      </c>
+      <c r="J14" s="10">
+        <v>100</v>
+      </c>
+      <c r="K14" s="10">
+        <v>100</v>
+      </c>
+      <c r="L14" s="10">
+        <v>100</v>
+      </c>
+      <c r="M14" s="10">
+        <v>100</v>
+      </c>
+      <c r="N14" s="10">
+        <v>100</v>
+      </c>
+      <c r="O14" s="10">
+        <v>100</v>
+      </c>
+      <c r="P14" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>100</v>
+      </c>
+      <c r="R14" s="10">
+        <v>100</v>
+      </c>
+      <c r="S14" s="10">
+        <v>100</v>
+      </c>
+      <c r="T14" s="10">
+        <v>100</v>
+      </c>
+      <c r="U14" s="10">
+        <v>100</v>
+      </c>
+      <c r="V14" s="10">
+        <v>100</v>
+      </c>
+      <c r="W14" s="10">
+        <v>100</v>
+      </c>
+      <c r="X14" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10">
-        <v>100</v>
-      </c>
-      <c r="C14" s="10">
-        <v>100</v>
-      </c>
-      <c r="D14" s="10">
-        <v>100</v>
-      </c>
-      <c r="E14" s="10">
-        <v>100</v>
-      </c>
-      <c r="F14" s="10">
-        <v>100</v>
-      </c>
-      <c r="G14" s="10">
-        <v>100</v>
-      </c>
-      <c r="H14" s="10">
-        <v>100</v>
-      </c>
-      <c r="I14" s="10">
-        <v>100</v>
-      </c>
-      <c r="J14" s="10">
-        <v>100</v>
-      </c>
-      <c r="K14" s="10">
-        <v>100</v>
-      </c>
-      <c r="L14" s="10">
-        <v>100</v>
-      </c>
-      <c r="M14" s="10">
-        <v>100</v>
-      </c>
-      <c r="N14" s="10">
-        <v>100</v>
-      </c>
-      <c r="O14" s="10">
-        <v>100</v>
-      </c>
-      <c r="P14" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>100</v>
-      </c>
-      <c r="R14" s="10">
-        <v>100</v>
-      </c>
-      <c r="S14" s="10">
-        <v>100</v>
-      </c>
-      <c r="T14" s="10">
-        <v>100</v>
-      </c>
-      <c r="U14" s="10">
-        <v>100</v>
-      </c>
-      <c r="V14" s="10">
-        <v>100</v>
-      </c>
-      <c r="W14" s="10">
-        <v>100</v>
-      </c>
-      <c r="X14" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="10">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="10">
+        <v>100</v>
+      </c>
+      <c r="F15" s="10">
+        <v>100</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100</v>
+      </c>
+      <c r="H15" s="10">
+        <v>100</v>
+      </c>
+      <c r="I15" s="10">
+        <v>100</v>
+      </c>
+      <c r="J15" s="10">
+        <v>100</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+      <c r="L15" s="10">
+        <v>100</v>
+      </c>
+      <c r="M15" s="10">
+        <v>100</v>
+      </c>
+      <c r="N15" s="10">
+        <v>100</v>
+      </c>
+      <c r="O15" s="10">
+        <v>100</v>
+      </c>
+      <c r="P15" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>100</v>
+      </c>
+      <c r="R15" s="10">
+        <v>100</v>
+      </c>
+      <c r="S15" s="10">
+        <v>100</v>
+      </c>
+      <c r="T15" s="10">
+        <v>100</v>
+      </c>
+      <c r="U15" s="10">
+        <v>100</v>
+      </c>
+      <c r="V15" s="10">
+        <v>100</v>
+      </c>
+      <c r="W15" s="10">
+        <v>100</v>
+      </c>
+      <c r="X15" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="25">
-        <v>100</v>
-      </c>
-      <c r="C15" s="25">
-        <v>100</v>
-      </c>
-      <c r="D15" s="25">
-        <v>100</v>
-      </c>
-      <c r="E15" s="25">
-        <v>100</v>
-      </c>
-      <c r="F15" s="25">
-        <v>100</v>
-      </c>
-      <c r="G15" s="25">
-        <v>100</v>
-      </c>
-      <c r="H15" s="25">
-        <v>100</v>
-      </c>
-      <c r="I15" s="25">
-        <v>100</v>
-      </c>
-      <c r="J15" s="25">
-        <v>100</v>
-      </c>
-      <c r="K15" s="25">
-        <v>100</v>
-      </c>
-      <c r="L15" s="25">
-        <v>100</v>
-      </c>
-      <c r="M15" s="25">
-        <v>100</v>
-      </c>
-      <c r="N15" s="25">
-        <v>100</v>
-      </c>
-      <c r="O15" s="25">
-        <v>100</v>
-      </c>
-      <c r="P15" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>100</v>
-      </c>
-      <c r="R15" s="25">
-        <v>100</v>
-      </c>
-      <c r="S15" s="25">
-        <v>100</v>
-      </c>
-      <c r="T15" s="25">
-        <v>100</v>
-      </c>
-      <c r="U15" s="25">
-        <v>100</v>
-      </c>
-      <c r="V15" s="25">
-        <v>100</v>
-      </c>
-      <c r="W15" s="25">
-        <v>100</v>
-      </c>
-      <c r="X15" s="25">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B16" s="25">
+        <v>100</v>
+      </c>
+      <c r="C16" s="25">
+        <v>100</v>
+      </c>
+      <c r="D16" s="25">
+        <v>100</v>
+      </c>
+      <c r="E16" s="25">
+        <v>100</v>
+      </c>
+      <c r="F16" s="25">
+        <v>100</v>
+      </c>
+      <c r="G16" s="25">
+        <v>100</v>
+      </c>
+      <c r="H16" s="25">
+        <v>100</v>
+      </c>
+      <c r="I16" s="25">
+        <v>100</v>
+      </c>
+      <c r="J16" s="25">
+        <v>100</v>
+      </c>
+      <c r="K16" s="25">
+        <v>100</v>
+      </c>
+      <c r="L16" s="25">
+        <v>100</v>
+      </c>
+      <c r="M16" s="25">
+        <v>100</v>
+      </c>
+      <c r="N16" s="25">
+        <v>100</v>
+      </c>
+      <c r="O16" s="25">
+        <v>100</v>
+      </c>
+      <c r="P16" s="25">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>100</v>
+      </c>
+      <c r="R16" s="25">
+        <v>100</v>
+      </c>
+      <c r="S16" s="25">
+        <v>100</v>
+      </c>
+      <c r="T16" s="25">
+        <v>100</v>
+      </c>
+      <c r="U16" s="25">
+        <v>100</v>
+      </c>
+      <c r="V16" s="25">
+        <v>100</v>
+      </c>
+      <c r="W16" s="25">
+        <v>100</v>
+      </c>
+      <c r="X16" s="25">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:X15">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B7:X16">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y15">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="Y7:Y16">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Female Employees" prompt="Please input the total number of female employees in this race/ethnicity and job category" sqref="N6:N15 K6:K15 H6:H15 E6:E15 B6:B15 W6:W15 T6:T15 Q6:Q15" xr:uid="{D2F08EA5-9A55-BE45-A7D4-0E74D324C993}">
-      <formula1>ISNUMBER(B6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Female Employees" prompt="Please input the total number of female employees in this race/ethnicity and job category" sqref="N7:N16 K7:K16 H7:H16 E7:E16 B7:B16 W7:W16 T7:T16 Q7:Q16" xr:uid="{D2F08EA5-9A55-BE45-A7D4-0E74D324C993}">
+      <formula1>ISNUMBER(B7)=TRUE</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of male employees in this race/ethnicity and job category" sqref="I6:J15 C6:D15 F6:G15 L6:M15 R6:S15 O6:P15 U6:V15 Y6:Y15" xr:uid="{6E6A29E5-DBE8-CA45-88FE-9265BEC6FB2D}">
-      <formula1>ISNUMBER(C6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of male employees in this race/ethnicity and job category" sqref="I7:J16 C7:D16 F7:G16 L7:M16 R7:S16 O7:P16 U7:V16 Y7:Y16" xr:uid="{6E6A29E5-DBE8-CA45-88FE-9265BEC6FB2D}">
+      <formula1>ISNUMBER(C7)=TRUE</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of Male employees in this race/ethnicity and job category" sqref="X6:X15" xr:uid="{BD86C181-45D4-5444-AB4E-E9D0C8127B76}">
-      <formula1>ISNUMBER(X6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of Male employees in this race/ethnicity and job category" sqref="X7:X16" xr:uid="{BD86C181-45D4-5444-AB4E-E9D0C8127B76}">
+      <formula1>ISNUMBER(X7)=TRUE</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -4257,10 +4313,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4331,10 +4387,8 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4351,207 +4405,160 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28" t="s">
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28" t="s">
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="29"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="14" t="s">
+      <c r="X5" s="28"/>
+      <c r="Y5" s="29"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="10">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10">
-        <v>10</v>
-      </c>
-      <c r="F6" s="10">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10">
-        <v>10</v>
-      </c>
-      <c r="I6" s="10">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10">
-        <v>10</v>
-      </c>
-      <c r="K6" s="10">
-        <v>10</v>
-      </c>
-      <c r="L6" s="10">
-        <v>10</v>
-      </c>
-      <c r="M6" s="10">
-        <v>10</v>
-      </c>
-      <c r="N6" s="10">
-        <v>10</v>
-      </c>
-      <c r="O6" s="10">
-        <v>10</v>
-      </c>
-      <c r="P6" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>10</v>
-      </c>
-      <c r="R6" s="10">
-        <v>10</v>
-      </c>
-      <c r="S6" s="10">
-        <v>10</v>
-      </c>
-      <c r="T6" s="10">
-        <v>10</v>
-      </c>
-      <c r="U6" s="10">
-        <v>10</v>
-      </c>
-      <c r="V6" s="10">
-        <v>10</v>
-      </c>
-      <c r="W6" s="10">
-        <v>10</v>
-      </c>
-      <c r="X6" s="10">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="10">
         <v>10</v>
@@ -4628,7 +4635,7 @@
     </row>
     <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10">
         <v>10</v>
@@ -4705,7 +4712,7 @@
     </row>
     <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="10">
         <v>10</v>
@@ -4782,7 +4789,7 @@
     </row>
     <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10">
         <v>10</v>
@@ -4859,7 +4866,7 @@
     </row>
     <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>10</v>
@@ -4936,7 +4943,7 @@
     </row>
     <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10">
         <v>10</v>
@@ -5013,7 +5020,7 @@
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="10">
         <v>10</v>
@@ -5090,198 +5097,275 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10">
+        <v>10</v>
+      </c>
+      <c r="I14" s="10">
+        <v>10</v>
+      </c>
+      <c r="J14" s="10">
+        <v>10</v>
+      </c>
+      <c r="K14" s="10">
+        <v>10</v>
+      </c>
+      <c r="L14" s="10">
+        <v>10</v>
+      </c>
+      <c r="M14" s="10">
+        <v>10</v>
+      </c>
+      <c r="N14" s="10">
+        <v>10</v>
+      </c>
+      <c r="O14" s="10">
+        <v>10</v>
+      </c>
+      <c r="P14" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>10</v>
+      </c>
+      <c r="R14" s="10">
+        <v>10</v>
+      </c>
+      <c r="S14" s="10">
+        <v>10</v>
+      </c>
+      <c r="T14" s="10">
+        <v>10</v>
+      </c>
+      <c r="U14" s="10">
+        <v>10</v>
+      </c>
+      <c r="V14" s="10">
+        <v>10</v>
+      </c>
+      <c r="W14" s="10">
+        <v>10</v>
+      </c>
+      <c r="X14" s="10">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10">
-        <v>10</v>
-      </c>
-      <c r="F14" s="10">
-        <v>10</v>
-      </c>
-      <c r="G14" s="10">
-        <v>10</v>
-      </c>
-      <c r="H14" s="10">
-        <v>10</v>
-      </c>
-      <c r="I14" s="10">
-        <v>10</v>
-      </c>
-      <c r="J14" s="10">
-        <v>10</v>
-      </c>
-      <c r="K14" s="10">
-        <v>10</v>
-      </c>
-      <c r="L14" s="10">
-        <v>10</v>
-      </c>
-      <c r="M14" s="10">
-        <v>10</v>
-      </c>
-      <c r="N14" s="10">
-        <v>10</v>
-      </c>
-      <c r="O14" s="10">
-        <v>10</v>
-      </c>
-      <c r="P14" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>10</v>
-      </c>
-      <c r="R14" s="10">
-        <v>10</v>
-      </c>
-      <c r="S14" s="10">
-        <v>10</v>
-      </c>
-      <c r="T14" s="10">
-        <v>10</v>
-      </c>
-      <c r="U14" s="10">
-        <v>10</v>
-      </c>
-      <c r="V14" s="10">
-        <v>10</v>
-      </c>
-      <c r="W14" s="10">
-        <v>10</v>
-      </c>
-      <c r="X14" s="10">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="10">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10">
+        <v>10</v>
+      </c>
+      <c r="J15" s="10">
+        <v>10</v>
+      </c>
+      <c r="K15" s="10">
+        <v>10</v>
+      </c>
+      <c r="L15" s="10">
+        <v>10</v>
+      </c>
+      <c r="M15" s="10">
+        <v>10</v>
+      </c>
+      <c r="N15" s="10">
+        <v>10</v>
+      </c>
+      <c r="O15" s="10">
+        <v>10</v>
+      </c>
+      <c r="P15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>10</v>
+      </c>
+      <c r="R15" s="10">
+        <v>10</v>
+      </c>
+      <c r="S15" s="10">
+        <v>10</v>
+      </c>
+      <c r="T15" s="10">
+        <v>10</v>
+      </c>
+      <c r="U15" s="10">
+        <v>10</v>
+      </c>
+      <c r="V15" s="10">
+        <v>10</v>
+      </c>
+      <c r="W15" s="10">
+        <v>10</v>
+      </c>
+      <c r="X15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="25">
-        <v>10</v>
-      </c>
-      <c r="C15" s="25">
-        <v>10</v>
-      </c>
-      <c r="D15" s="25">
-        <v>10</v>
-      </c>
-      <c r="E15" s="25">
-        <v>10</v>
-      </c>
-      <c r="F15" s="25">
-        <v>10</v>
-      </c>
-      <c r="G15" s="25">
-        <v>10</v>
-      </c>
-      <c r="H15" s="25">
-        <v>10</v>
-      </c>
-      <c r="I15" s="25">
-        <v>10</v>
-      </c>
-      <c r="J15" s="25">
-        <v>10</v>
-      </c>
-      <c r="K15" s="25">
-        <v>10</v>
-      </c>
-      <c r="L15" s="25">
-        <v>10</v>
-      </c>
-      <c r="M15" s="25">
-        <v>10</v>
-      </c>
-      <c r="N15" s="25">
-        <v>10</v>
-      </c>
-      <c r="O15" s="25">
-        <v>10</v>
-      </c>
-      <c r="P15" s="25">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>10</v>
-      </c>
-      <c r="R15" s="25">
-        <v>10</v>
-      </c>
-      <c r="S15" s="25">
-        <v>10</v>
-      </c>
-      <c r="T15" s="25">
-        <v>10</v>
-      </c>
-      <c r="U15" s="25">
-        <v>10</v>
-      </c>
-      <c r="V15" s="25">
-        <v>10</v>
-      </c>
-      <c r="W15" s="25">
-        <v>10</v>
-      </c>
-      <c r="X15" s="25">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B16" s="25">
+        <v>10</v>
+      </c>
+      <c r="C16" s="25">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25">
+        <v>10</v>
+      </c>
+      <c r="E16" s="25">
+        <v>10</v>
+      </c>
+      <c r="F16" s="25">
+        <v>10</v>
+      </c>
+      <c r="G16" s="25">
+        <v>10</v>
+      </c>
+      <c r="H16" s="25">
+        <v>10</v>
+      </c>
+      <c r="I16" s="25">
+        <v>10</v>
+      </c>
+      <c r="J16" s="25">
+        <v>10</v>
+      </c>
+      <c r="K16" s="25">
+        <v>10</v>
+      </c>
+      <c r="L16" s="25">
+        <v>10</v>
+      </c>
+      <c r="M16" s="25">
+        <v>10</v>
+      </c>
+      <c r="N16" s="25">
+        <v>10</v>
+      </c>
+      <c r="O16" s="25">
+        <v>10</v>
+      </c>
+      <c r="P16" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>10</v>
+      </c>
+      <c r="R16" s="25">
+        <v>10</v>
+      </c>
+      <c r="S16" s="25">
+        <v>10</v>
+      </c>
+      <c r="T16" s="25">
+        <v>10</v>
+      </c>
+      <c r="U16" s="25">
+        <v>10</v>
+      </c>
+      <c r="V16" s="25">
+        <v>10</v>
+      </c>
+      <c r="W16" s="25">
+        <v>10</v>
+      </c>
+      <c r="X16" s="25">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:X15">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B7:X16">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y15">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="Y7:Y16">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Female Employees" prompt="Please input the total number of female employees in this race/ethnicity and job category" sqref="N6:N15 K6:K15 H6:H15 E6:E15 B6:B15 W6:W15 T6:T15 Q6:Q15" xr:uid="{9E5F1A44-A214-054F-9856-633DC5294776}">
-      <formula1>ISNUMBER(B6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Female Employees" prompt="Please input the total number of female employees in this race/ethnicity and job category" sqref="N7:N16 K7:K16 H7:H16 E7:E16 B7:B16 W7:W16 T7:T16 Q7:Q16" xr:uid="{9E5F1A44-A214-054F-9856-633DC5294776}">
+      <formula1>ISNUMBER(B7)=TRUE</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of male employees in this race/ethnicity and job category" sqref="I6:J15 C6:D15 F6:G15 L6:M15 R6:S15 O6:P15 U6:V15 Y6:Y15" xr:uid="{4D13A8E9-4C25-8944-B5AC-0282F85DD582}">
-      <formula1>ISNUMBER(C6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of male employees in this race/ethnicity and job category" sqref="I7:J16 C7:D16 F7:G16 L7:M16 R7:S16 O7:P16 U7:V16 Y7:Y16" xr:uid="{4D13A8E9-4C25-8944-B5AC-0282F85DD582}">
+      <formula1>ISNUMBER(C7)=TRUE</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of Male employees in this race/ethnicity and job category" sqref="X6:X15" xr:uid="{966C6A43-2684-CA4E-8A65-970AAB321BEC}">
-      <formula1>ISNUMBER(X6)=TRUE</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data Entry" error="Please do not input any text or leave any cells blank. If the value is zero, please input zero." promptTitle="Number of Male Employees" prompt="Please input the total number of Male employees in this race/ethnicity and job category" sqref="X7:X16" xr:uid="{966C6A43-2684-CA4E-8A65-970AAB321BEC}">
+      <formula1>ISNUMBER(X7)=TRUE</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -5685,95 +5769,95 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B7&gt;0, '2.Compensation'!B6&gt;0, '4.Tenure'!B6&gt;0), "Pass", IF(AND('1.Number of Employees'!B7=0, '2.Compensation'!B6=0, '4.Tenure'!B6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B7&gt;0, '2.Compensation'!B7&gt;0, '4.Tenure'!B7&gt;0), "Pass", IF(AND('1.Number of Employees'!B7=0, '2.Compensation'!B7=0, '4.Tenure'!B7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C7&gt;0, '2.Compensation'!C6&gt;0, '4.Tenure'!C6&gt;0), "Pass", IF(AND('1.Number of Employees'!C7=0, '2.Compensation'!C6=0, '4.Tenure'!C6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C7&gt;0, '2.Compensation'!C7&gt;0, '4.Tenure'!C7&gt;0), "Pass", IF(AND('1.Number of Employees'!C7=0, '2.Compensation'!C7=0, '4.Tenure'!C7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D7&gt;0, '2.Compensation'!D6&gt;0, '4.Tenure'!D6&gt;0), "Pass", IF(AND('1.Number of Employees'!D7=0, '2.Compensation'!D6=0, '4.Tenure'!D6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D7&gt;0, '2.Compensation'!D7&gt;0, '4.Tenure'!D7&gt;0), "Pass", IF(AND('1.Number of Employees'!D7=0, '2.Compensation'!D7=0, '4.Tenure'!D7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E7&gt;0, '2.Compensation'!D6&gt;0, '4.Tenure'!D6&gt;0), "Pass", IF(AND('1.Number of Employees'!E7=0, '2.Compensation'!D6=0, '4.Tenure'!D6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E7&gt;0, '2.Compensation'!D7&gt;0, '4.Tenure'!D7&gt;0), "Pass", IF(AND('1.Number of Employees'!E7=0, '2.Compensation'!D7=0, '4.Tenure'!D7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F7&gt;0, '2.Compensation'!E6&gt;0, '4.Tenure'!E6&gt;0), "Pass", IF(AND('1.Number of Employees'!F7=0, '2.Compensation'!E6=0, '4.Tenure'!E6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F7&gt;0, '2.Compensation'!E7&gt;0, '4.Tenure'!E7&gt;0), "Pass", IF(AND('1.Number of Employees'!F7=0, '2.Compensation'!E7=0, '4.Tenure'!E7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G7&gt;0, '2.Compensation'!F6&gt;0, '4.Tenure'!F6&gt;0), "Pass", IF(AND('1.Number of Employees'!G7=0, '2.Compensation'!F6=0, '4.Tenure'!F6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G7&gt;0, '2.Compensation'!F7&gt;0, '4.Tenure'!F7&gt;0), "Pass", IF(AND('1.Number of Employees'!G7=0, '2.Compensation'!F7=0, '4.Tenure'!F7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H7&gt;0, '2.Compensation'!F6&gt;0, '4.Tenure'!F6&gt;0), "Pass", IF(AND('1.Number of Employees'!H7=0, '2.Compensation'!F6=0, '4.Tenure'!F6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H7&gt;0, '2.Compensation'!F7&gt;0, '4.Tenure'!F7&gt;0), "Pass", IF(AND('1.Number of Employees'!H7=0, '2.Compensation'!F7=0, '4.Tenure'!F7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I7&gt;0, '2.Compensation'!G6&gt;0, '4.Tenure'!G6&gt;0), "Pass", IF(AND('1.Number of Employees'!I7=0, '2.Compensation'!G6=0, '4.Tenure'!G6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I7&gt;0, '2.Compensation'!G7&gt;0, '4.Tenure'!G7&gt;0), "Pass", IF(AND('1.Number of Employees'!I7=0, '2.Compensation'!G7=0, '4.Tenure'!G7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J7&gt;0, '2.Compensation'!H6&gt;0, '4.Tenure'!H6&gt;0), "Pass", IF(AND('1.Number of Employees'!J7=0, '2.Compensation'!H6=0, '4.Tenure'!H6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J7&gt;0, '2.Compensation'!H7&gt;0, '4.Tenure'!H7&gt;0), "Pass", IF(AND('1.Number of Employees'!J7=0, '2.Compensation'!H7=0, '4.Tenure'!H7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K7&gt;0, '2.Compensation'!H6&gt;0, '4.Tenure'!H6&gt;0), "Pass", IF(AND('1.Number of Employees'!K7=0, '2.Compensation'!H6=0, '4.Tenure'!H6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K7&gt;0, '2.Compensation'!H7&gt;0, '4.Tenure'!H7&gt;0), "Pass", IF(AND('1.Number of Employees'!K7=0, '2.Compensation'!H7=0, '4.Tenure'!H7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L7&gt;0, '2.Compensation'!I6&gt;0, '4.Tenure'!I6&gt;0), "Pass", IF(AND('1.Number of Employees'!L7=0, '2.Compensation'!I6=0, '4.Tenure'!I6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L7&gt;0, '2.Compensation'!I7&gt;0, '4.Tenure'!I7&gt;0), "Pass", IF(AND('1.Number of Employees'!L7=0, '2.Compensation'!I7=0, '4.Tenure'!I7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M7&gt;0, '2.Compensation'!J6&gt;0, '4.Tenure'!J6&gt;0), "Pass", IF(AND('1.Number of Employees'!M7=0, '2.Compensation'!J6=0, '4.Tenure'!J6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M7&gt;0, '2.Compensation'!J7&gt;0, '4.Tenure'!J7&gt;0), "Pass", IF(AND('1.Number of Employees'!M7=0, '2.Compensation'!J7=0, '4.Tenure'!J7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N7&gt;0, '2.Compensation'!J6&gt;0, '4.Tenure'!J6&gt;0), "Pass", IF(AND('1.Number of Employees'!N7=0, '2.Compensation'!J6=0, '4.Tenure'!J6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N7&gt;0, '2.Compensation'!J7&gt;0, '4.Tenure'!J7&gt;0), "Pass", IF(AND('1.Number of Employees'!N7=0, '2.Compensation'!J7=0, '4.Tenure'!J7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O7&gt;0, '2.Compensation'!K6&gt;0, '4.Tenure'!K6&gt;0), "Pass", IF(AND('1.Number of Employees'!O7=0, '2.Compensation'!K6=0, '4.Tenure'!K6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O7&gt;0, '2.Compensation'!K7&gt;0, '4.Tenure'!K7&gt;0), "Pass", IF(AND('1.Number of Employees'!O7=0, '2.Compensation'!K7=0, '4.Tenure'!K7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P7&gt;0, '2.Compensation'!L6&gt;0, '4.Tenure'!L6&gt;0), "Pass", IF(AND('1.Number of Employees'!P7=0, '2.Compensation'!L6=0, '4.Tenure'!L6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P7&gt;0, '2.Compensation'!L7&gt;0, '4.Tenure'!L7&gt;0), "Pass", IF(AND('1.Number of Employees'!P7=0, '2.Compensation'!L7=0, '4.Tenure'!L7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q7&gt;0, '2.Compensation'!L6&gt;0, '4.Tenure'!L6&gt;0), "Pass", IF(AND('1.Number of Employees'!Q7=0, '2.Compensation'!L6=0, '4.Tenure'!L6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q7&gt;0, '2.Compensation'!L7&gt;0, '4.Tenure'!L7&gt;0), "Pass", IF(AND('1.Number of Employees'!Q7=0, '2.Compensation'!L7=0, '4.Tenure'!L7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R7&gt;0, '2.Compensation'!M6&gt;0, '4.Tenure'!M6&gt;0), "Pass", IF(AND('1.Number of Employees'!R7=0, '2.Compensation'!M6=0, '4.Tenure'!M6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R7&gt;0, '2.Compensation'!M7&gt;0, '4.Tenure'!M7&gt;0), "Pass", IF(AND('1.Number of Employees'!R7=0, '2.Compensation'!M7=0, '4.Tenure'!M7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S7&gt;0, '2.Compensation'!N6&gt;0, '4.Tenure'!N6&gt;0), "Pass", IF(AND('1.Number of Employees'!S7=0, '2.Compensation'!N6=0, '4.Tenure'!N6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S7&gt;0, '2.Compensation'!N7&gt;0, '4.Tenure'!N7&gt;0), "Pass", IF(AND('1.Number of Employees'!S7=0, '2.Compensation'!N7=0, '4.Tenure'!N7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T7&gt;0, '2.Compensation'!N6&gt;0, '4.Tenure'!N6&gt;0), "Pass", IF(AND('1.Number of Employees'!T7=0, '2.Compensation'!N6=0, '4.Tenure'!N6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T7&gt;0, '2.Compensation'!N7&gt;0, '4.Tenure'!N7&gt;0), "Pass", IF(AND('1.Number of Employees'!T7=0, '2.Compensation'!N7=0, '4.Tenure'!N7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U7&gt;0, '2.Compensation'!O6&gt;0, '4.Tenure'!O6&gt;0), "Pass", IF(AND('1.Number of Employees'!U7=0, '2.Compensation'!O6=0, '4.Tenure'!O6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U7&gt;0, '2.Compensation'!O7&gt;0, '4.Tenure'!O7&gt;0), "Pass", IF(AND('1.Number of Employees'!U7=0, '2.Compensation'!O7=0, '4.Tenure'!O7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V7&gt;0, '2.Compensation'!P6&gt;0, '4.Tenure'!P6&gt;0), "Pass", IF(AND('1.Number of Employees'!V7=0, '2.Compensation'!P6=0, '4.Tenure'!P6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V7&gt;0, '2.Compensation'!P7&gt;0, '4.Tenure'!P7&gt;0), "Pass", IF(AND('1.Number of Employees'!V7=0, '2.Compensation'!P7=0, '4.Tenure'!P7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W7&gt;0, '2.Compensation'!P6&gt;0, '4.Tenure'!P6&gt;0), "Pass", IF(AND('1.Number of Employees'!W7=0, '2.Compensation'!P6=0, '4.Tenure'!P6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W7&gt;0, '2.Compensation'!P7&gt;0, '4.Tenure'!P7&gt;0), "Pass", IF(AND('1.Number of Employees'!W7=0, '2.Compensation'!P7=0, '4.Tenure'!P7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X7" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X7&gt;0, '2.Compensation'!Q6&gt;0, '4.Tenure'!Q6&gt;0), "Pass", IF(AND('1.Number of Employees'!X7=0, '2.Compensation'!Q6=0, '4.Tenure'!Q6=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X7&gt;0, '2.Compensation'!Q7&gt;0, '4.Tenure'!Q7&gt;0), "Pass", IF(AND('1.Number of Employees'!X7=0, '2.Compensation'!Q7=0, '4.Tenure'!Q7=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y7" s="27" t="s">
@@ -5786,95 +5870,95 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B8&gt;0, '2.Compensation'!B7&gt;0, '4.Tenure'!B7&gt;0), "Pass", IF(AND('1.Number of Employees'!B8=0, '2.Compensation'!B7=0, '4.Tenure'!B7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B8&gt;0, '2.Compensation'!B8&gt;0, '4.Tenure'!B8&gt;0), "Pass", IF(AND('1.Number of Employees'!B8=0, '2.Compensation'!B8=0, '4.Tenure'!B8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C8&gt;0, '2.Compensation'!C7&gt;0, '4.Tenure'!C7&gt;0), "Pass", IF(AND('1.Number of Employees'!C8=0, '2.Compensation'!C7=0, '4.Tenure'!C7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C8&gt;0, '2.Compensation'!C8&gt;0, '4.Tenure'!C8&gt;0), "Pass", IF(AND('1.Number of Employees'!C8=0, '2.Compensation'!C8=0, '4.Tenure'!C8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D8&gt;0, '2.Compensation'!D7&gt;0, '4.Tenure'!D7&gt;0), "Pass", IF(AND('1.Number of Employees'!D8=0, '2.Compensation'!D7=0, '4.Tenure'!D7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D8&gt;0, '2.Compensation'!D8&gt;0, '4.Tenure'!D8&gt;0), "Pass", IF(AND('1.Number of Employees'!D8=0, '2.Compensation'!D8=0, '4.Tenure'!D8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E8&gt;0, '2.Compensation'!D7&gt;0, '4.Tenure'!D7&gt;0), "Pass", IF(AND('1.Number of Employees'!E8=0, '2.Compensation'!D7=0, '4.Tenure'!D7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E8&gt;0, '2.Compensation'!D8&gt;0, '4.Tenure'!D8&gt;0), "Pass", IF(AND('1.Number of Employees'!E8=0, '2.Compensation'!D8=0, '4.Tenure'!D8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F8&gt;0, '2.Compensation'!E7&gt;0, '4.Tenure'!E7&gt;0), "Pass", IF(AND('1.Number of Employees'!F8=0, '2.Compensation'!E7=0, '4.Tenure'!E7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F8&gt;0, '2.Compensation'!E8&gt;0, '4.Tenure'!E8&gt;0), "Pass", IF(AND('1.Number of Employees'!F8=0, '2.Compensation'!E8=0, '4.Tenure'!E8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G8&gt;0, '2.Compensation'!F7&gt;0, '4.Tenure'!F7&gt;0), "Pass", IF(AND('1.Number of Employees'!G8=0, '2.Compensation'!F7=0, '4.Tenure'!F7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G8&gt;0, '2.Compensation'!F8&gt;0, '4.Tenure'!F8&gt;0), "Pass", IF(AND('1.Number of Employees'!G8=0, '2.Compensation'!F8=0, '4.Tenure'!F8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H8&gt;0, '2.Compensation'!F7&gt;0, '4.Tenure'!F7&gt;0), "Pass", IF(AND('1.Number of Employees'!H8=0, '2.Compensation'!F7=0, '4.Tenure'!F7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H8&gt;0, '2.Compensation'!F8&gt;0, '4.Tenure'!F8&gt;0), "Pass", IF(AND('1.Number of Employees'!H8=0, '2.Compensation'!F8=0, '4.Tenure'!F8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I8&gt;0, '2.Compensation'!G7&gt;0, '4.Tenure'!G7&gt;0), "Pass", IF(AND('1.Number of Employees'!I8=0, '2.Compensation'!G7=0, '4.Tenure'!G7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I8&gt;0, '2.Compensation'!G8&gt;0, '4.Tenure'!G8&gt;0), "Pass", IF(AND('1.Number of Employees'!I8=0, '2.Compensation'!G8=0, '4.Tenure'!G8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J8&gt;0, '2.Compensation'!H7&gt;0, '4.Tenure'!H7&gt;0), "Pass", IF(AND('1.Number of Employees'!J8=0, '2.Compensation'!H7=0, '4.Tenure'!H7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J8&gt;0, '2.Compensation'!H8&gt;0, '4.Tenure'!H8&gt;0), "Pass", IF(AND('1.Number of Employees'!J8=0, '2.Compensation'!H8=0, '4.Tenure'!H8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K8&gt;0, '2.Compensation'!H7&gt;0, '4.Tenure'!H7&gt;0), "Pass", IF(AND('1.Number of Employees'!K8=0, '2.Compensation'!H7=0, '4.Tenure'!H7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K8&gt;0, '2.Compensation'!H8&gt;0, '4.Tenure'!H8&gt;0), "Pass", IF(AND('1.Number of Employees'!K8=0, '2.Compensation'!H8=0, '4.Tenure'!H8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L8&gt;0, '2.Compensation'!I7&gt;0, '4.Tenure'!I7&gt;0), "Pass", IF(AND('1.Number of Employees'!L8=0, '2.Compensation'!I7=0, '4.Tenure'!I7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L8&gt;0, '2.Compensation'!I8&gt;0, '4.Tenure'!I8&gt;0), "Pass", IF(AND('1.Number of Employees'!L8=0, '2.Compensation'!I8=0, '4.Tenure'!I8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M8&gt;0, '2.Compensation'!J7&gt;0, '4.Tenure'!J7&gt;0), "Pass", IF(AND('1.Number of Employees'!M8=0, '2.Compensation'!J7=0, '4.Tenure'!J7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M8&gt;0, '2.Compensation'!J8&gt;0, '4.Tenure'!J8&gt;0), "Pass", IF(AND('1.Number of Employees'!M8=0, '2.Compensation'!J8=0, '4.Tenure'!J8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N8&gt;0, '2.Compensation'!J7&gt;0, '4.Tenure'!J7&gt;0), "Pass", IF(AND('1.Number of Employees'!N8=0, '2.Compensation'!J7=0, '4.Tenure'!J7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N8&gt;0, '2.Compensation'!J8&gt;0, '4.Tenure'!J8&gt;0), "Pass", IF(AND('1.Number of Employees'!N8=0, '2.Compensation'!J8=0, '4.Tenure'!J8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O8&gt;0, '2.Compensation'!K7&gt;0, '4.Tenure'!K7&gt;0), "Pass", IF(AND('1.Number of Employees'!O8=0, '2.Compensation'!K7=0, '4.Tenure'!K7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O8&gt;0, '2.Compensation'!K8&gt;0, '4.Tenure'!K8&gt;0), "Pass", IF(AND('1.Number of Employees'!O8=0, '2.Compensation'!K8=0, '4.Tenure'!K8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P8&gt;0, '2.Compensation'!L7&gt;0, '4.Tenure'!L7&gt;0), "Pass", IF(AND('1.Number of Employees'!P8=0, '2.Compensation'!L7=0, '4.Tenure'!L7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P8&gt;0, '2.Compensation'!L8&gt;0, '4.Tenure'!L8&gt;0), "Pass", IF(AND('1.Number of Employees'!P8=0, '2.Compensation'!L8=0, '4.Tenure'!L8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q8&gt;0, '2.Compensation'!L7&gt;0, '4.Tenure'!L7&gt;0), "Pass", IF(AND('1.Number of Employees'!Q8=0, '2.Compensation'!L7=0, '4.Tenure'!L7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q8&gt;0, '2.Compensation'!L8&gt;0, '4.Tenure'!L8&gt;0), "Pass", IF(AND('1.Number of Employees'!Q8=0, '2.Compensation'!L8=0, '4.Tenure'!L8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R8&gt;0, '2.Compensation'!M7&gt;0, '4.Tenure'!M7&gt;0), "Pass", IF(AND('1.Number of Employees'!R8=0, '2.Compensation'!M7=0, '4.Tenure'!M7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R8&gt;0, '2.Compensation'!M8&gt;0, '4.Tenure'!M8&gt;0), "Pass", IF(AND('1.Number of Employees'!R8=0, '2.Compensation'!M8=0, '4.Tenure'!M8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S8&gt;0, '2.Compensation'!N7&gt;0, '4.Tenure'!N7&gt;0), "Pass", IF(AND('1.Number of Employees'!S8=0, '2.Compensation'!N7=0, '4.Tenure'!N7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S8&gt;0, '2.Compensation'!N8&gt;0, '4.Tenure'!N8&gt;0), "Pass", IF(AND('1.Number of Employees'!S8=0, '2.Compensation'!N8=0, '4.Tenure'!N8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T8&gt;0, '2.Compensation'!N7&gt;0, '4.Tenure'!N7&gt;0), "Pass", IF(AND('1.Number of Employees'!T8=0, '2.Compensation'!N7=0, '4.Tenure'!N7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T8&gt;0, '2.Compensation'!N8&gt;0, '4.Tenure'!N8&gt;0), "Pass", IF(AND('1.Number of Employees'!T8=0, '2.Compensation'!N8=0, '4.Tenure'!N8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U8&gt;0, '2.Compensation'!O7&gt;0, '4.Tenure'!O7&gt;0), "Pass", IF(AND('1.Number of Employees'!U8=0, '2.Compensation'!O7=0, '4.Tenure'!O7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U8&gt;0, '2.Compensation'!O8&gt;0, '4.Tenure'!O8&gt;0), "Pass", IF(AND('1.Number of Employees'!U8=0, '2.Compensation'!O8=0, '4.Tenure'!O8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V8&gt;0, '2.Compensation'!P7&gt;0, '4.Tenure'!P7&gt;0), "Pass", IF(AND('1.Number of Employees'!V8=0, '2.Compensation'!P7=0, '4.Tenure'!P7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V8&gt;0, '2.Compensation'!P8&gt;0, '4.Tenure'!P8&gt;0), "Pass", IF(AND('1.Number of Employees'!V8=0, '2.Compensation'!P8=0, '4.Tenure'!P8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W8&gt;0, '2.Compensation'!P7&gt;0, '4.Tenure'!P7&gt;0), "Pass", IF(AND('1.Number of Employees'!W8=0, '2.Compensation'!P7=0, '4.Tenure'!P7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W8&gt;0, '2.Compensation'!P8&gt;0, '4.Tenure'!P8&gt;0), "Pass", IF(AND('1.Number of Employees'!W8=0, '2.Compensation'!P8=0, '4.Tenure'!P8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X8" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X8&gt;0, '2.Compensation'!Q7&gt;0, '4.Tenure'!Q7&gt;0), "Pass", IF(AND('1.Number of Employees'!X8=0, '2.Compensation'!Q7=0, '4.Tenure'!Q7=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X8&gt;0, '2.Compensation'!Q8&gt;0, '4.Tenure'!Q8&gt;0), "Pass", IF(AND('1.Number of Employees'!X8=0, '2.Compensation'!Q8=0, '4.Tenure'!Q8=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y8" s="27" t="s">
@@ -5887,95 +5971,95 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B9&gt;0, '2.Compensation'!B8&gt;0, '4.Tenure'!B8&gt;0), "Pass", IF(AND('1.Number of Employees'!B9=0, '2.Compensation'!B8=0, '4.Tenure'!B8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B9&gt;0, '2.Compensation'!B9&gt;0, '4.Tenure'!B9&gt;0), "Pass", IF(AND('1.Number of Employees'!B9=0, '2.Compensation'!B9=0, '4.Tenure'!B9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C9&gt;0, '2.Compensation'!C8&gt;0, '4.Tenure'!C8&gt;0), "Pass", IF(AND('1.Number of Employees'!C9=0, '2.Compensation'!C8=0, '4.Tenure'!C8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C9&gt;0, '2.Compensation'!C9&gt;0, '4.Tenure'!C9&gt;0), "Pass", IF(AND('1.Number of Employees'!C9=0, '2.Compensation'!C9=0, '4.Tenure'!C9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D9&gt;0, '2.Compensation'!D8&gt;0, '4.Tenure'!D8&gt;0), "Pass", IF(AND('1.Number of Employees'!D9=0, '2.Compensation'!D8=0, '4.Tenure'!D8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D9&gt;0, '2.Compensation'!D9&gt;0, '4.Tenure'!D9&gt;0), "Pass", IF(AND('1.Number of Employees'!D9=0, '2.Compensation'!D9=0, '4.Tenure'!D9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E9&gt;0, '2.Compensation'!D8&gt;0, '4.Tenure'!D8&gt;0), "Pass", IF(AND('1.Number of Employees'!E9=0, '2.Compensation'!D8=0, '4.Tenure'!D8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E9&gt;0, '2.Compensation'!D9&gt;0, '4.Tenure'!D9&gt;0), "Pass", IF(AND('1.Number of Employees'!E9=0, '2.Compensation'!D9=0, '4.Tenure'!D9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F9&gt;0, '2.Compensation'!E8&gt;0, '4.Tenure'!E8&gt;0), "Pass", IF(AND('1.Number of Employees'!F9=0, '2.Compensation'!E8=0, '4.Tenure'!E8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F9&gt;0, '2.Compensation'!E9&gt;0, '4.Tenure'!E9&gt;0), "Pass", IF(AND('1.Number of Employees'!F9=0, '2.Compensation'!E9=0, '4.Tenure'!E9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G9&gt;0, '2.Compensation'!F8&gt;0, '4.Tenure'!F8&gt;0), "Pass", IF(AND('1.Number of Employees'!G9=0, '2.Compensation'!F8=0, '4.Tenure'!F8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G9&gt;0, '2.Compensation'!F9&gt;0, '4.Tenure'!F9&gt;0), "Pass", IF(AND('1.Number of Employees'!G9=0, '2.Compensation'!F9=0, '4.Tenure'!F9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H9&gt;0, '2.Compensation'!F8&gt;0, '4.Tenure'!F8&gt;0), "Pass", IF(AND('1.Number of Employees'!H9=0, '2.Compensation'!F8=0, '4.Tenure'!F8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H9&gt;0, '2.Compensation'!F9&gt;0, '4.Tenure'!F9&gt;0), "Pass", IF(AND('1.Number of Employees'!H9=0, '2.Compensation'!F9=0, '4.Tenure'!F9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I9&gt;0, '2.Compensation'!G8&gt;0, '4.Tenure'!G8&gt;0), "Pass", IF(AND('1.Number of Employees'!I9=0, '2.Compensation'!G8=0, '4.Tenure'!G8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I9&gt;0, '2.Compensation'!G9&gt;0, '4.Tenure'!G9&gt;0), "Pass", IF(AND('1.Number of Employees'!I9=0, '2.Compensation'!G9=0, '4.Tenure'!G9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J9&gt;0, '2.Compensation'!H8&gt;0, '4.Tenure'!H8&gt;0), "Pass", IF(AND('1.Number of Employees'!J9=0, '2.Compensation'!H8=0, '4.Tenure'!H8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J9&gt;0, '2.Compensation'!H9&gt;0, '4.Tenure'!H9&gt;0), "Pass", IF(AND('1.Number of Employees'!J9=0, '2.Compensation'!H9=0, '4.Tenure'!H9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K9&gt;0, '2.Compensation'!H8&gt;0, '4.Tenure'!H8&gt;0), "Pass", IF(AND('1.Number of Employees'!K9=0, '2.Compensation'!H8=0, '4.Tenure'!H8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K9&gt;0, '2.Compensation'!H9&gt;0, '4.Tenure'!H9&gt;0), "Pass", IF(AND('1.Number of Employees'!K9=0, '2.Compensation'!H9=0, '4.Tenure'!H9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L9&gt;0, '2.Compensation'!I8&gt;0, '4.Tenure'!I8&gt;0), "Pass", IF(AND('1.Number of Employees'!L9=0, '2.Compensation'!I8=0, '4.Tenure'!I8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L9&gt;0, '2.Compensation'!I9&gt;0, '4.Tenure'!I9&gt;0), "Pass", IF(AND('1.Number of Employees'!L9=0, '2.Compensation'!I9=0, '4.Tenure'!I9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M9&gt;0, '2.Compensation'!J8&gt;0, '4.Tenure'!J8&gt;0), "Pass", IF(AND('1.Number of Employees'!M9=0, '2.Compensation'!J8=0, '4.Tenure'!J8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M9&gt;0, '2.Compensation'!J9&gt;0, '4.Tenure'!J9&gt;0), "Pass", IF(AND('1.Number of Employees'!M9=0, '2.Compensation'!J9=0, '4.Tenure'!J9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N9&gt;0, '2.Compensation'!J8&gt;0, '4.Tenure'!J8&gt;0), "Pass", IF(AND('1.Number of Employees'!N9=0, '2.Compensation'!J8=0, '4.Tenure'!J8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N9&gt;0, '2.Compensation'!J9&gt;0, '4.Tenure'!J9&gt;0), "Pass", IF(AND('1.Number of Employees'!N9=0, '2.Compensation'!J9=0, '4.Tenure'!J9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O9&gt;0, '2.Compensation'!K8&gt;0, '4.Tenure'!K8&gt;0), "Pass", IF(AND('1.Number of Employees'!O9=0, '2.Compensation'!K8=0, '4.Tenure'!K8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O9&gt;0, '2.Compensation'!K9&gt;0, '4.Tenure'!K9&gt;0), "Pass", IF(AND('1.Number of Employees'!O9=0, '2.Compensation'!K9=0, '4.Tenure'!K9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P9&gt;0, '2.Compensation'!L8&gt;0, '4.Tenure'!L8&gt;0), "Pass", IF(AND('1.Number of Employees'!P9=0, '2.Compensation'!L8=0, '4.Tenure'!L8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P9&gt;0, '2.Compensation'!L9&gt;0, '4.Tenure'!L9&gt;0), "Pass", IF(AND('1.Number of Employees'!P9=0, '2.Compensation'!L9=0, '4.Tenure'!L9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q9&gt;0, '2.Compensation'!L8&gt;0, '4.Tenure'!L8&gt;0), "Pass", IF(AND('1.Number of Employees'!Q9=0, '2.Compensation'!L8=0, '4.Tenure'!L8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q9&gt;0, '2.Compensation'!L9&gt;0, '4.Tenure'!L9&gt;0), "Pass", IF(AND('1.Number of Employees'!Q9=0, '2.Compensation'!L9=0, '4.Tenure'!L9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R9&gt;0, '2.Compensation'!M8&gt;0, '4.Tenure'!M8&gt;0), "Pass", IF(AND('1.Number of Employees'!R9=0, '2.Compensation'!M8=0, '4.Tenure'!M8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R9&gt;0, '2.Compensation'!M9&gt;0, '4.Tenure'!M9&gt;0), "Pass", IF(AND('1.Number of Employees'!R9=0, '2.Compensation'!M9=0, '4.Tenure'!M9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S9&gt;0, '2.Compensation'!N8&gt;0, '4.Tenure'!N8&gt;0), "Pass", IF(AND('1.Number of Employees'!S9=0, '2.Compensation'!N8=0, '4.Tenure'!N8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S9&gt;0, '2.Compensation'!N9&gt;0, '4.Tenure'!N9&gt;0), "Pass", IF(AND('1.Number of Employees'!S9=0, '2.Compensation'!N9=0, '4.Tenure'!N9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T9&gt;0, '2.Compensation'!N8&gt;0, '4.Tenure'!N8&gt;0), "Pass", IF(AND('1.Number of Employees'!T9=0, '2.Compensation'!N8=0, '4.Tenure'!N8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T9&gt;0, '2.Compensation'!N9&gt;0, '4.Tenure'!N9&gt;0), "Pass", IF(AND('1.Number of Employees'!T9=0, '2.Compensation'!N9=0, '4.Tenure'!N9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U9&gt;0, '2.Compensation'!O8&gt;0, '4.Tenure'!O8&gt;0), "Pass", IF(AND('1.Number of Employees'!U9=0, '2.Compensation'!O8=0, '4.Tenure'!O8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U9&gt;0, '2.Compensation'!O9&gt;0, '4.Tenure'!O9&gt;0), "Pass", IF(AND('1.Number of Employees'!U9=0, '2.Compensation'!O9=0, '4.Tenure'!O9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V9&gt;0, '2.Compensation'!P8&gt;0, '4.Tenure'!P8&gt;0), "Pass", IF(AND('1.Number of Employees'!V9=0, '2.Compensation'!P8=0, '4.Tenure'!P8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V9&gt;0, '2.Compensation'!P9&gt;0, '4.Tenure'!P9&gt;0), "Pass", IF(AND('1.Number of Employees'!V9=0, '2.Compensation'!P9=0, '4.Tenure'!P9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W9&gt;0, '2.Compensation'!P8&gt;0, '4.Tenure'!P8&gt;0), "Pass", IF(AND('1.Number of Employees'!W9=0, '2.Compensation'!P8=0, '4.Tenure'!P8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W9&gt;0, '2.Compensation'!P9&gt;0, '4.Tenure'!P9&gt;0), "Pass", IF(AND('1.Number of Employees'!W9=0, '2.Compensation'!P9=0, '4.Tenure'!P9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X9" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X9&gt;0, '2.Compensation'!Q8&gt;0, '4.Tenure'!Q8&gt;0), "Pass", IF(AND('1.Number of Employees'!X9=0, '2.Compensation'!Q8=0, '4.Tenure'!Q8=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X9&gt;0, '2.Compensation'!Q9&gt;0, '4.Tenure'!Q9&gt;0), "Pass", IF(AND('1.Number of Employees'!X9=0, '2.Compensation'!Q9=0, '4.Tenure'!Q9=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y9" s="27" t="s">
@@ -5988,95 +6072,95 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B10&gt;0, '2.Compensation'!B9&gt;0, '4.Tenure'!B9&gt;0), "Pass", IF(AND('1.Number of Employees'!B10=0, '2.Compensation'!B9=0, '4.Tenure'!B9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B10&gt;0, '2.Compensation'!B10&gt;0, '4.Tenure'!B10&gt;0), "Pass", IF(AND('1.Number of Employees'!B10=0, '2.Compensation'!B10=0, '4.Tenure'!B10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C10&gt;0, '2.Compensation'!C9&gt;0, '4.Tenure'!C9&gt;0), "Pass", IF(AND('1.Number of Employees'!C10=0, '2.Compensation'!C9=0, '4.Tenure'!C9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C10&gt;0, '2.Compensation'!C10&gt;0, '4.Tenure'!C10&gt;0), "Pass", IF(AND('1.Number of Employees'!C10=0, '2.Compensation'!C10=0, '4.Tenure'!C10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D10&gt;0, '2.Compensation'!D9&gt;0, '4.Tenure'!D9&gt;0), "Pass", IF(AND('1.Number of Employees'!D10=0, '2.Compensation'!D9=0, '4.Tenure'!D9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D10&gt;0, '2.Compensation'!D10&gt;0, '4.Tenure'!D10&gt;0), "Pass", IF(AND('1.Number of Employees'!D10=0, '2.Compensation'!D10=0, '4.Tenure'!D10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E10&gt;0, '2.Compensation'!D9&gt;0, '4.Tenure'!D9&gt;0), "Pass", IF(AND('1.Number of Employees'!E10=0, '2.Compensation'!D9=0, '4.Tenure'!D9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E10&gt;0, '2.Compensation'!D10&gt;0, '4.Tenure'!D10&gt;0), "Pass", IF(AND('1.Number of Employees'!E10=0, '2.Compensation'!D10=0, '4.Tenure'!D10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F10&gt;0, '2.Compensation'!E9&gt;0, '4.Tenure'!E9&gt;0), "Pass", IF(AND('1.Number of Employees'!F10=0, '2.Compensation'!E9=0, '4.Tenure'!E9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F10&gt;0, '2.Compensation'!E10&gt;0, '4.Tenure'!E10&gt;0), "Pass", IF(AND('1.Number of Employees'!F10=0, '2.Compensation'!E10=0, '4.Tenure'!E10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G10&gt;0, '2.Compensation'!F9&gt;0, '4.Tenure'!F9&gt;0), "Pass", IF(AND('1.Number of Employees'!G10=0, '2.Compensation'!F9=0, '4.Tenure'!F9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G10&gt;0, '2.Compensation'!F10&gt;0, '4.Tenure'!F10&gt;0), "Pass", IF(AND('1.Number of Employees'!G10=0, '2.Compensation'!F10=0, '4.Tenure'!F10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H10&gt;0, '2.Compensation'!F9&gt;0, '4.Tenure'!F9&gt;0), "Pass", IF(AND('1.Number of Employees'!H10=0, '2.Compensation'!F9=0, '4.Tenure'!F9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H10&gt;0, '2.Compensation'!F10&gt;0, '4.Tenure'!F10&gt;0), "Pass", IF(AND('1.Number of Employees'!H10=0, '2.Compensation'!F10=0, '4.Tenure'!F10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I10&gt;0, '2.Compensation'!G9&gt;0, '4.Tenure'!G9&gt;0), "Pass", IF(AND('1.Number of Employees'!I10=0, '2.Compensation'!G9=0, '4.Tenure'!G9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I10&gt;0, '2.Compensation'!G10&gt;0, '4.Tenure'!G10&gt;0), "Pass", IF(AND('1.Number of Employees'!I10=0, '2.Compensation'!G10=0, '4.Tenure'!G10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J10&gt;0, '2.Compensation'!H9&gt;0, '4.Tenure'!H9&gt;0), "Pass", IF(AND('1.Number of Employees'!J10=0, '2.Compensation'!H9=0, '4.Tenure'!H9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J10&gt;0, '2.Compensation'!H10&gt;0, '4.Tenure'!H10&gt;0), "Pass", IF(AND('1.Number of Employees'!J10=0, '2.Compensation'!H10=0, '4.Tenure'!H10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K10&gt;0, '2.Compensation'!H9&gt;0, '4.Tenure'!H9&gt;0), "Pass", IF(AND('1.Number of Employees'!K10=0, '2.Compensation'!H9=0, '4.Tenure'!H9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K10&gt;0, '2.Compensation'!H10&gt;0, '4.Tenure'!H10&gt;0), "Pass", IF(AND('1.Number of Employees'!K10=0, '2.Compensation'!H10=0, '4.Tenure'!H10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L10&gt;0, '2.Compensation'!I9&gt;0, '4.Tenure'!I9&gt;0), "Pass", IF(AND('1.Number of Employees'!L10=0, '2.Compensation'!I9=0, '4.Tenure'!I9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L10&gt;0, '2.Compensation'!I10&gt;0, '4.Tenure'!I10&gt;0), "Pass", IF(AND('1.Number of Employees'!L10=0, '2.Compensation'!I10=0, '4.Tenure'!I10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M10&gt;0, '2.Compensation'!J9&gt;0, '4.Tenure'!J9&gt;0), "Pass", IF(AND('1.Number of Employees'!M10=0, '2.Compensation'!J9=0, '4.Tenure'!J9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M10&gt;0, '2.Compensation'!J10&gt;0, '4.Tenure'!J10&gt;0), "Pass", IF(AND('1.Number of Employees'!M10=0, '2.Compensation'!J10=0, '4.Tenure'!J10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N10&gt;0, '2.Compensation'!J9&gt;0, '4.Tenure'!J9&gt;0), "Pass", IF(AND('1.Number of Employees'!N10=0, '2.Compensation'!J9=0, '4.Tenure'!J9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N10&gt;0, '2.Compensation'!J10&gt;0, '4.Tenure'!J10&gt;0), "Pass", IF(AND('1.Number of Employees'!N10=0, '2.Compensation'!J10=0, '4.Tenure'!J10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O10&gt;0, '2.Compensation'!K9&gt;0, '4.Tenure'!K9&gt;0), "Pass", IF(AND('1.Number of Employees'!O10=0, '2.Compensation'!K9=0, '4.Tenure'!K9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O10&gt;0, '2.Compensation'!K10&gt;0, '4.Tenure'!K10&gt;0), "Pass", IF(AND('1.Number of Employees'!O10=0, '2.Compensation'!K10=0, '4.Tenure'!K10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P10&gt;0, '2.Compensation'!L9&gt;0, '4.Tenure'!L9&gt;0), "Pass", IF(AND('1.Number of Employees'!P10=0, '2.Compensation'!L9=0, '4.Tenure'!L9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P10&gt;0, '2.Compensation'!L10&gt;0, '4.Tenure'!L10&gt;0), "Pass", IF(AND('1.Number of Employees'!P10=0, '2.Compensation'!L10=0, '4.Tenure'!L10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q10&gt;0, '2.Compensation'!L9&gt;0, '4.Tenure'!L9&gt;0), "Pass", IF(AND('1.Number of Employees'!Q10=0, '2.Compensation'!L9=0, '4.Tenure'!L9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q10&gt;0, '2.Compensation'!L10&gt;0, '4.Tenure'!L10&gt;0), "Pass", IF(AND('1.Number of Employees'!Q10=0, '2.Compensation'!L10=0, '4.Tenure'!L10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R10&gt;0, '2.Compensation'!M9&gt;0, '4.Tenure'!M9&gt;0), "Pass", IF(AND('1.Number of Employees'!R10=0, '2.Compensation'!M9=0, '4.Tenure'!M9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R10&gt;0, '2.Compensation'!M10&gt;0, '4.Tenure'!M10&gt;0), "Pass", IF(AND('1.Number of Employees'!R10=0, '2.Compensation'!M10=0, '4.Tenure'!M10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S10&gt;0, '2.Compensation'!N9&gt;0, '4.Tenure'!N9&gt;0), "Pass", IF(AND('1.Number of Employees'!S10=0, '2.Compensation'!N9=0, '4.Tenure'!N9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S10&gt;0, '2.Compensation'!N10&gt;0, '4.Tenure'!N10&gt;0), "Pass", IF(AND('1.Number of Employees'!S10=0, '2.Compensation'!N10=0, '4.Tenure'!N10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T10&gt;0, '2.Compensation'!N9&gt;0, '4.Tenure'!N9&gt;0), "Pass", IF(AND('1.Number of Employees'!T10=0, '2.Compensation'!N9=0, '4.Tenure'!N9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T10&gt;0, '2.Compensation'!N10&gt;0, '4.Tenure'!N10&gt;0), "Pass", IF(AND('1.Number of Employees'!T10=0, '2.Compensation'!N10=0, '4.Tenure'!N10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U10&gt;0, '2.Compensation'!O9&gt;0, '4.Tenure'!O9&gt;0), "Pass", IF(AND('1.Number of Employees'!U10=0, '2.Compensation'!O9=0, '4.Tenure'!O9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U10&gt;0, '2.Compensation'!O10&gt;0, '4.Tenure'!O10&gt;0), "Pass", IF(AND('1.Number of Employees'!U10=0, '2.Compensation'!O10=0, '4.Tenure'!O10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V10&gt;0, '2.Compensation'!P9&gt;0, '4.Tenure'!P9&gt;0), "Pass", IF(AND('1.Number of Employees'!V10=0, '2.Compensation'!P9=0, '4.Tenure'!P9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V10&gt;0, '2.Compensation'!P10&gt;0, '4.Tenure'!P10&gt;0), "Pass", IF(AND('1.Number of Employees'!V10=0, '2.Compensation'!P10=0, '4.Tenure'!P10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W10&gt;0, '2.Compensation'!P9&gt;0, '4.Tenure'!P9&gt;0), "Pass", IF(AND('1.Number of Employees'!W10=0, '2.Compensation'!P9=0, '4.Tenure'!P9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W10&gt;0, '2.Compensation'!P10&gt;0, '4.Tenure'!P10&gt;0), "Pass", IF(AND('1.Number of Employees'!W10=0, '2.Compensation'!P10=0, '4.Tenure'!P10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X10" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X10&gt;0, '2.Compensation'!Q9&gt;0, '4.Tenure'!Q9&gt;0), "Pass", IF(AND('1.Number of Employees'!X10=0, '2.Compensation'!Q9=0, '4.Tenure'!Q9=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X10&gt;0, '2.Compensation'!Q10&gt;0, '4.Tenure'!Q10&gt;0), "Pass", IF(AND('1.Number of Employees'!X10=0, '2.Compensation'!Q10=0, '4.Tenure'!Q10=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y10" s="27" t="s">
@@ -6089,95 +6173,95 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B11&gt;0, '2.Compensation'!B10&gt;0, '4.Tenure'!B10&gt;0), "Pass", IF(AND('1.Number of Employees'!B11=0, '2.Compensation'!B10=0, '4.Tenure'!B10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B11&gt;0, '2.Compensation'!B11&gt;0, '4.Tenure'!B11&gt;0), "Pass", IF(AND('1.Number of Employees'!B11=0, '2.Compensation'!B11=0, '4.Tenure'!B11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C11&gt;0, '2.Compensation'!C10&gt;0, '4.Tenure'!C10&gt;0), "Pass", IF(AND('1.Number of Employees'!C11=0, '2.Compensation'!C10=0, '4.Tenure'!C10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C11&gt;0, '2.Compensation'!C11&gt;0, '4.Tenure'!C11&gt;0), "Pass", IF(AND('1.Number of Employees'!C11=0, '2.Compensation'!C11=0, '4.Tenure'!C11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D11&gt;0, '2.Compensation'!D10&gt;0, '4.Tenure'!D10&gt;0), "Pass", IF(AND('1.Number of Employees'!D11=0, '2.Compensation'!D10=0, '4.Tenure'!D10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D11&gt;0, '2.Compensation'!D11&gt;0, '4.Tenure'!D11&gt;0), "Pass", IF(AND('1.Number of Employees'!D11=0, '2.Compensation'!D11=0, '4.Tenure'!D11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E11&gt;0, '2.Compensation'!D10&gt;0, '4.Tenure'!D10&gt;0), "Pass", IF(AND('1.Number of Employees'!E11=0, '2.Compensation'!D10=0, '4.Tenure'!D10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E11&gt;0, '2.Compensation'!D11&gt;0, '4.Tenure'!D11&gt;0), "Pass", IF(AND('1.Number of Employees'!E11=0, '2.Compensation'!D11=0, '4.Tenure'!D11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F11&gt;0, '2.Compensation'!E10&gt;0, '4.Tenure'!E10&gt;0), "Pass", IF(AND('1.Number of Employees'!F11=0, '2.Compensation'!E10=0, '4.Tenure'!E10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F11&gt;0, '2.Compensation'!E11&gt;0, '4.Tenure'!E11&gt;0), "Pass", IF(AND('1.Number of Employees'!F11=0, '2.Compensation'!E11=0, '4.Tenure'!E11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G11&gt;0, '2.Compensation'!F10&gt;0, '4.Tenure'!F10&gt;0), "Pass", IF(AND('1.Number of Employees'!G11=0, '2.Compensation'!F10=0, '4.Tenure'!F10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G11&gt;0, '2.Compensation'!F11&gt;0, '4.Tenure'!F11&gt;0), "Pass", IF(AND('1.Number of Employees'!G11=0, '2.Compensation'!F11=0, '4.Tenure'!F11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H11&gt;0, '2.Compensation'!F10&gt;0, '4.Tenure'!F10&gt;0), "Pass", IF(AND('1.Number of Employees'!H11=0, '2.Compensation'!F10=0, '4.Tenure'!F10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H11&gt;0, '2.Compensation'!F11&gt;0, '4.Tenure'!F11&gt;0), "Pass", IF(AND('1.Number of Employees'!H11=0, '2.Compensation'!F11=0, '4.Tenure'!F11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I11&gt;0, '2.Compensation'!G10&gt;0, '4.Tenure'!G10&gt;0), "Pass", IF(AND('1.Number of Employees'!I11=0, '2.Compensation'!G10=0, '4.Tenure'!G10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I11&gt;0, '2.Compensation'!G11&gt;0, '4.Tenure'!G11&gt;0), "Pass", IF(AND('1.Number of Employees'!I11=0, '2.Compensation'!G11=0, '4.Tenure'!G11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J11&gt;0, '2.Compensation'!H10&gt;0, '4.Tenure'!H10&gt;0), "Pass", IF(AND('1.Number of Employees'!J11=0, '2.Compensation'!H10=0, '4.Tenure'!H10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J11&gt;0, '2.Compensation'!H11&gt;0, '4.Tenure'!H11&gt;0), "Pass", IF(AND('1.Number of Employees'!J11=0, '2.Compensation'!H11=0, '4.Tenure'!H11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K11&gt;0, '2.Compensation'!H10&gt;0, '4.Tenure'!H10&gt;0), "Pass", IF(AND('1.Number of Employees'!K11=0, '2.Compensation'!H10=0, '4.Tenure'!H10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K11&gt;0, '2.Compensation'!H11&gt;0, '4.Tenure'!H11&gt;0), "Pass", IF(AND('1.Number of Employees'!K11=0, '2.Compensation'!H11=0, '4.Tenure'!H11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L11&gt;0, '2.Compensation'!I10&gt;0, '4.Tenure'!I10&gt;0), "Pass", IF(AND('1.Number of Employees'!L11=0, '2.Compensation'!I10=0, '4.Tenure'!I10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L11&gt;0, '2.Compensation'!I11&gt;0, '4.Tenure'!I11&gt;0), "Pass", IF(AND('1.Number of Employees'!L11=0, '2.Compensation'!I11=0, '4.Tenure'!I11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M11&gt;0, '2.Compensation'!J10&gt;0, '4.Tenure'!J10&gt;0), "Pass", IF(AND('1.Number of Employees'!M11=0, '2.Compensation'!J10=0, '4.Tenure'!J10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M11&gt;0, '2.Compensation'!J11&gt;0, '4.Tenure'!J11&gt;0), "Pass", IF(AND('1.Number of Employees'!M11=0, '2.Compensation'!J11=0, '4.Tenure'!J11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N11&gt;0, '2.Compensation'!J10&gt;0, '4.Tenure'!J10&gt;0), "Pass", IF(AND('1.Number of Employees'!N11=0, '2.Compensation'!J10=0, '4.Tenure'!J10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N11&gt;0, '2.Compensation'!J11&gt;0, '4.Tenure'!J11&gt;0), "Pass", IF(AND('1.Number of Employees'!N11=0, '2.Compensation'!J11=0, '4.Tenure'!J11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O11&gt;0, '2.Compensation'!K10&gt;0, '4.Tenure'!K10&gt;0), "Pass", IF(AND('1.Number of Employees'!O11=0, '2.Compensation'!K10=0, '4.Tenure'!K10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O11&gt;0, '2.Compensation'!K11&gt;0, '4.Tenure'!K11&gt;0), "Pass", IF(AND('1.Number of Employees'!O11=0, '2.Compensation'!K11=0, '4.Tenure'!K11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P11&gt;0, '2.Compensation'!L10&gt;0, '4.Tenure'!L10&gt;0), "Pass", IF(AND('1.Number of Employees'!P11=0, '2.Compensation'!L10=0, '4.Tenure'!L10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P11&gt;0, '2.Compensation'!L11&gt;0, '4.Tenure'!L11&gt;0), "Pass", IF(AND('1.Number of Employees'!P11=0, '2.Compensation'!L11=0, '4.Tenure'!L11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q11&gt;0, '2.Compensation'!L10&gt;0, '4.Tenure'!L10&gt;0), "Pass", IF(AND('1.Number of Employees'!Q11=0, '2.Compensation'!L10=0, '4.Tenure'!L10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q11&gt;0, '2.Compensation'!L11&gt;0, '4.Tenure'!L11&gt;0), "Pass", IF(AND('1.Number of Employees'!Q11=0, '2.Compensation'!L11=0, '4.Tenure'!L11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R11&gt;0, '2.Compensation'!M10&gt;0, '4.Tenure'!M10&gt;0), "Pass", IF(AND('1.Number of Employees'!R11=0, '2.Compensation'!M10=0, '4.Tenure'!M10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R11&gt;0, '2.Compensation'!M11&gt;0, '4.Tenure'!M11&gt;0), "Pass", IF(AND('1.Number of Employees'!R11=0, '2.Compensation'!M11=0, '4.Tenure'!M11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S11&gt;0, '2.Compensation'!N10&gt;0, '4.Tenure'!N10&gt;0), "Pass", IF(AND('1.Number of Employees'!S11=0, '2.Compensation'!N10=0, '4.Tenure'!N10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S11&gt;0, '2.Compensation'!N11&gt;0, '4.Tenure'!N11&gt;0), "Pass", IF(AND('1.Number of Employees'!S11=0, '2.Compensation'!N11=0, '4.Tenure'!N11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T11&gt;0, '2.Compensation'!N10&gt;0, '4.Tenure'!N10&gt;0), "Pass", IF(AND('1.Number of Employees'!T11=0, '2.Compensation'!N10=0, '4.Tenure'!N10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T11&gt;0, '2.Compensation'!N11&gt;0, '4.Tenure'!N11&gt;0), "Pass", IF(AND('1.Number of Employees'!T11=0, '2.Compensation'!N11=0, '4.Tenure'!N11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U11&gt;0, '2.Compensation'!O10&gt;0, '4.Tenure'!O10&gt;0), "Pass", IF(AND('1.Number of Employees'!U11=0, '2.Compensation'!O10=0, '4.Tenure'!O10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U11&gt;0, '2.Compensation'!O11&gt;0, '4.Tenure'!O11&gt;0), "Pass", IF(AND('1.Number of Employees'!U11=0, '2.Compensation'!O11=0, '4.Tenure'!O11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V11&gt;0, '2.Compensation'!P10&gt;0, '4.Tenure'!P10&gt;0), "Pass", IF(AND('1.Number of Employees'!V11=0, '2.Compensation'!P10=0, '4.Tenure'!P10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V11&gt;0, '2.Compensation'!P11&gt;0, '4.Tenure'!P11&gt;0), "Pass", IF(AND('1.Number of Employees'!V11=0, '2.Compensation'!P11=0, '4.Tenure'!P11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W11&gt;0, '2.Compensation'!P10&gt;0, '4.Tenure'!P10&gt;0), "Pass", IF(AND('1.Number of Employees'!W11=0, '2.Compensation'!P10=0, '4.Tenure'!P10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W11&gt;0, '2.Compensation'!P11&gt;0, '4.Tenure'!P11&gt;0), "Pass", IF(AND('1.Number of Employees'!W11=0, '2.Compensation'!P11=0, '4.Tenure'!P11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X11" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X11&gt;0, '2.Compensation'!Q10&gt;0, '4.Tenure'!Q10&gt;0), "Pass", IF(AND('1.Number of Employees'!X11=0, '2.Compensation'!Q10=0, '4.Tenure'!Q10=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X11&gt;0, '2.Compensation'!Q11&gt;0, '4.Tenure'!Q11&gt;0), "Pass", IF(AND('1.Number of Employees'!X11=0, '2.Compensation'!Q11=0, '4.Tenure'!Q11=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y11" s="27" t="s">
@@ -6190,95 +6274,95 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B12&gt;0, '2.Compensation'!B11&gt;0, '4.Tenure'!B11&gt;0), "Pass", IF(AND('1.Number of Employees'!B12=0, '2.Compensation'!B11=0, '4.Tenure'!B11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B12&gt;0, '2.Compensation'!B12&gt;0, '4.Tenure'!B12&gt;0), "Pass", IF(AND('1.Number of Employees'!B12=0, '2.Compensation'!B12=0, '4.Tenure'!B12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C12&gt;0, '2.Compensation'!C11&gt;0, '4.Tenure'!C11&gt;0), "Pass", IF(AND('1.Number of Employees'!C12=0, '2.Compensation'!C11=0, '4.Tenure'!C11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C12&gt;0, '2.Compensation'!C12&gt;0, '4.Tenure'!C12&gt;0), "Pass", IF(AND('1.Number of Employees'!C12=0, '2.Compensation'!C12=0, '4.Tenure'!C12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D12&gt;0, '2.Compensation'!D11&gt;0, '4.Tenure'!D11&gt;0), "Pass", IF(AND('1.Number of Employees'!D12=0, '2.Compensation'!D11=0, '4.Tenure'!D11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D12&gt;0, '2.Compensation'!D12&gt;0, '4.Tenure'!D12&gt;0), "Pass", IF(AND('1.Number of Employees'!D12=0, '2.Compensation'!D12=0, '4.Tenure'!D12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E12&gt;0, '2.Compensation'!D11&gt;0, '4.Tenure'!D11&gt;0), "Pass", IF(AND('1.Number of Employees'!E12=0, '2.Compensation'!D11=0, '4.Tenure'!D11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E12&gt;0, '2.Compensation'!D12&gt;0, '4.Tenure'!D12&gt;0), "Pass", IF(AND('1.Number of Employees'!E12=0, '2.Compensation'!D12=0, '4.Tenure'!D12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F12&gt;0, '2.Compensation'!E11&gt;0, '4.Tenure'!E11&gt;0), "Pass", IF(AND('1.Number of Employees'!F12=0, '2.Compensation'!E11=0, '4.Tenure'!E11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F12&gt;0, '2.Compensation'!E12&gt;0, '4.Tenure'!E12&gt;0), "Pass", IF(AND('1.Number of Employees'!F12=0, '2.Compensation'!E12=0, '4.Tenure'!E12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G12&gt;0, '2.Compensation'!F11&gt;0, '4.Tenure'!F11&gt;0), "Pass", IF(AND('1.Number of Employees'!G12=0, '2.Compensation'!F11=0, '4.Tenure'!F11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G12&gt;0, '2.Compensation'!F12&gt;0, '4.Tenure'!F12&gt;0), "Pass", IF(AND('1.Number of Employees'!G12=0, '2.Compensation'!F12=0, '4.Tenure'!F12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H12&gt;0, '2.Compensation'!F11&gt;0, '4.Tenure'!F11&gt;0), "Pass", IF(AND('1.Number of Employees'!H12=0, '2.Compensation'!F11=0, '4.Tenure'!F11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H12&gt;0, '2.Compensation'!F12&gt;0, '4.Tenure'!F12&gt;0), "Pass", IF(AND('1.Number of Employees'!H12=0, '2.Compensation'!F12=0, '4.Tenure'!F12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I12&gt;0, '2.Compensation'!G11&gt;0, '4.Tenure'!G11&gt;0), "Pass", IF(AND('1.Number of Employees'!I12=0, '2.Compensation'!G11=0, '4.Tenure'!G11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I12&gt;0, '2.Compensation'!G12&gt;0, '4.Tenure'!G12&gt;0), "Pass", IF(AND('1.Number of Employees'!I12=0, '2.Compensation'!G12=0, '4.Tenure'!G12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J12&gt;0, '2.Compensation'!H11&gt;0, '4.Tenure'!H11&gt;0), "Pass", IF(AND('1.Number of Employees'!J12=0, '2.Compensation'!H11=0, '4.Tenure'!H11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J12&gt;0, '2.Compensation'!H12&gt;0, '4.Tenure'!H12&gt;0), "Pass", IF(AND('1.Number of Employees'!J12=0, '2.Compensation'!H12=0, '4.Tenure'!H12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K12&gt;0, '2.Compensation'!H11&gt;0, '4.Tenure'!H11&gt;0), "Pass", IF(AND('1.Number of Employees'!K12=0, '2.Compensation'!H11=0, '4.Tenure'!H11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K12&gt;0, '2.Compensation'!H12&gt;0, '4.Tenure'!H12&gt;0), "Pass", IF(AND('1.Number of Employees'!K12=0, '2.Compensation'!H12=0, '4.Tenure'!H12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L12&gt;0, '2.Compensation'!I11&gt;0, '4.Tenure'!I11&gt;0), "Pass", IF(AND('1.Number of Employees'!L12=0, '2.Compensation'!I11=0, '4.Tenure'!I11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L12&gt;0, '2.Compensation'!I12&gt;0, '4.Tenure'!I12&gt;0), "Pass", IF(AND('1.Number of Employees'!L12=0, '2.Compensation'!I12=0, '4.Tenure'!I12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M12&gt;0, '2.Compensation'!J11&gt;0, '4.Tenure'!J11&gt;0), "Pass", IF(AND('1.Number of Employees'!M12=0, '2.Compensation'!J11=0, '4.Tenure'!J11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M12&gt;0, '2.Compensation'!J12&gt;0, '4.Tenure'!J12&gt;0), "Pass", IF(AND('1.Number of Employees'!M12=0, '2.Compensation'!J12=0, '4.Tenure'!J12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N12&gt;0, '2.Compensation'!J11&gt;0, '4.Tenure'!J11&gt;0), "Pass", IF(AND('1.Number of Employees'!N12=0, '2.Compensation'!J11=0, '4.Tenure'!J11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N12&gt;0, '2.Compensation'!J12&gt;0, '4.Tenure'!J12&gt;0), "Pass", IF(AND('1.Number of Employees'!N12=0, '2.Compensation'!J12=0, '4.Tenure'!J12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O12&gt;0, '2.Compensation'!K11&gt;0, '4.Tenure'!K11&gt;0), "Pass", IF(AND('1.Number of Employees'!O12=0, '2.Compensation'!K11=0, '4.Tenure'!K11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O12&gt;0, '2.Compensation'!K12&gt;0, '4.Tenure'!K12&gt;0), "Pass", IF(AND('1.Number of Employees'!O12=0, '2.Compensation'!K12=0, '4.Tenure'!K12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P12&gt;0, '2.Compensation'!L11&gt;0, '4.Tenure'!L11&gt;0), "Pass", IF(AND('1.Number of Employees'!P12=0, '2.Compensation'!L11=0, '4.Tenure'!L11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P12&gt;0, '2.Compensation'!L12&gt;0, '4.Tenure'!L12&gt;0), "Pass", IF(AND('1.Number of Employees'!P12=0, '2.Compensation'!L12=0, '4.Tenure'!L12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q12&gt;0, '2.Compensation'!L11&gt;0, '4.Tenure'!L11&gt;0), "Pass", IF(AND('1.Number of Employees'!Q12=0, '2.Compensation'!L11=0, '4.Tenure'!L11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q12&gt;0, '2.Compensation'!L12&gt;0, '4.Tenure'!L12&gt;0), "Pass", IF(AND('1.Number of Employees'!Q12=0, '2.Compensation'!L12=0, '4.Tenure'!L12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R12&gt;0, '2.Compensation'!M11&gt;0, '4.Tenure'!M11&gt;0), "Pass", IF(AND('1.Number of Employees'!R12=0, '2.Compensation'!M11=0, '4.Tenure'!M11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R12&gt;0, '2.Compensation'!M12&gt;0, '4.Tenure'!M12&gt;0), "Pass", IF(AND('1.Number of Employees'!R12=0, '2.Compensation'!M12=0, '4.Tenure'!M12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S12&gt;0, '2.Compensation'!N11&gt;0, '4.Tenure'!N11&gt;0), "Pass", IF(AND('1.Number of Employees'!S12=0, '2.Compensation'!N11=0, '4.Tenure'!N11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S12&gt;0, '2.Compensation'!N12&gt;0, '4.Tenure'!N12&gt;0), "Pass", IF(AND('1.Number of Employees'!S12=0, '2.Compensation'!N12=0, '4.Tenure'!N12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T12&gt;0, '2.Compensation'!N11&gt;0, '4.Tenure'!N11&gt;0), "Pass", IF(AND('1.Number of Employees'!T12=0, '2.Compensation'!N11=0, '4.Tenure'!N11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T12&gt;0, '2.Compensation'!N12&gt;0, '4.Tenure'!N12&gt;0), "Pass", IF(AND('1.Number of Employees'!T12=0, '2.Compensation'!N12=0, '4.Tenure'!N12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U12&gt;0, '2.Compensation'!O11&gt;0, '4.Tenure'!O11&gt;0), "Pass", IF(AND('1.Number of Employees'!U12=0, '2.Compensation'!O11=0, '4.Tenure'!O11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U12&gt;0, '2.Compensation'!O12&gt;0, '4.Tenure'!O12&gt;0), "Pass", IF(AND('1.Number of Employees'!U12=0, '2.Compensation'!O12=0, '4.Tenure'!O12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V12&gt;0, '2.Compensation'!P11&gt;0, '4.Tenure'!P11&gt;0), "Pass", IF(AND('1.Number of Employees'!V12=0, '2.Compensation'!P11=0, '4.Tenure'!P11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V12&gt;0, '2.Compensation'!P12&gt;0, '4.Tenure'!P12&gt;0), "Pass", IF(AND('1.Number of Employees'!V12=0, '2.Compensation'!P12=0, '4.Tenure'!P12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W12&gt;0, '2.Compensation'!P11&gt;0, '4.Tenure'!P11&gt;0), "Pass", IF(AND('1.Number of Employees'!W12=0, '2.Compensation'!P11=0, '4.Tenure'!P11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W12&gt;0, '2.Compensation'!P12&gt;0, '4.Tenure'!P12&gt;0), "Pass", IF(AND('1.Number of Employees'!W12=0, '2.Compensation'!P12=0, '4.Tenure'!P12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X12" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X12&gt;0, '2.Compensation'!Q11&gt;0, '4.Tenure'!Q11&gt;0), "Pass", IF(AND('1.Number of Employees'!X12=0, '2.Compensation'!Q11=0, '4.Tenure'!Q11=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X12&gt;0, '2.Compensation'!Q12&gt;0, '4.Tenure'!Q12&gt;0), "Pass", IF(AND('1.Number of Employees'!X12=0, '2.Compensation'!Q12=0, '4.Tenure'!Q12=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y12" s="27" t="s">
@@ -6291,95 +6375,95 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B13&gt;0, '2.Compensation'!B12&gt;0, '4.Tenure'!B12&gt;0), "Pass", IF(AND('1.Number of Employees'!B13=0, '2.Compensation'!B12=0, '4.Tenure'!B12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B13&gt;0, '2.Compensation'!B13&gt;0, '4.Tenure'!B13&gt;0), "Pass", IF(AND('1.Number of Employees'!B13=0, '2.Compensation'!B13=0, '4.Tenure'!B13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C13&gt;0, '2.Compensation'!C12&gt;0, '4.Tenure'!C12&gt;0), "Pass", IF(AND('1.Number of Employees'!C13=0, '2.Compensation'!C12=0, '4.Tenure'!C12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C13&gt;0, '2.Compensation'!C13&gt;0, '4.Tenure'!C13&gt;0), "Pass", IF(AND('1.Number of Employees'!C13=0, '2.Compensation'!C13=0, '4.Tenure'!C13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D13&gt;0, '2.Compensation'!D12&gt;0, '4.Tenure'!D12&gt;0), "Pass", IF(AND('1.Number of Employees'!D13=0, '2.Compensation'!D12=0, '4.Tenure'!D12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D13&gt;0, '2.Compensation'!D13&gt;0, '4.Tenure'!D13&gt;0), "Pass", IF(AND('1.Number of Employees'!D13=0, '2.Compensation'!D13=0, '4.Tenure'!D13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E13&gt;0, '2.Compensation'!D12&gt;0, '4.Tenure'!D12&gt;0), "Pass", IF(AND('1.Number of Employees'!E13=0, '2.Compensation'!D12=0, '4.Tenure'!D12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E13&gt;0, '2.Compensation'!D13&gt;0, '4.Tenure'!D13&gt;0), "Pass", IF(AND('1.Number of Employees'!E13=0, '2.Compensation'!D13=0, '4.Tenure'!D13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F13&gt;0, '2.Compensation'!E12&gt;0, '4.Tenure'!E12&gt;0), "Pass", IF(AND('1.Number of Employees'!F13=0, '2.Compensation'!E12=0, '4.Tenure'!E12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F13&gt;0, '2.Compensation'!E13&gt;0, '4.Tenure'!E13&gt;0), "Pass", IF(AND('1.Number of Employees'!F13=0, '2.Compensation'!E13=0, '4.Tenure'!E13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G13&gt;0, '2.Compensation'!F12&gt;0, '4.Tenure'!F12&gt;0), "Pass", IF(AND('1.Number of Employees'!G13=0, '2.Compensation'!F12=0, '4.Tenure'!F12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G13&gt;0, '2.Compensation'!F13&gt;0, '4.Tenure'!F13&gt;0), "Pass", IF(AND('1.Number of Employees'!G13=0, '2.Compensation'!F13=0, '4.Tenure'!F13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H13&gt;0, '2.Compensation'!F12&gt;0, '4.Tenure'!F12&gt;0), "Pass", IF(AND('1.Number of Employees'!H13=0, '2.Compensation'!F12=0, '4.Tenure'!F12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H13&gt;0, '2.Compensation'!F13&gt;0, '4.Tenure'!F13&gt;0), "Pass", IF(AND('1.Number of Employees'!H13=0, '2.Compensation'!F13=0, '4.Tenure'!F13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I13&gt;0, '2.Compensation'!G12&gt;0, '4.Tenure'!G12&gt;0), "Pass", IF(AND('1.Number of Employees'!I13=0, '2.Compensation'!G12=0, '4.Tenure'!G12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I13&gt;0, '2.Compensation'!G13&gt;0, '4.Tenure'!G13&gt;0), "Pass", IF(AND('1.Number of Employees'!I13=0, '2.Compensation'!G13=0, '4.Tenure'!G13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J13&gt;0, '2.Compensation'!H12&gt;0, '4.Tenure'!H12&gt;0), "Pass", IF(AND('1.Number of Employees'!J13=0, '2.Compensation'!H12=0, '4.Tenure'!H12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J13&gt;0, '2.Compensation'!H13&gt;0, '4.Tenure'!H13&gt;0), "Pass", IF(AND('1.Number of Employees'!J13=0, '2.Compensation'!H13=0, '4.Tenure'!H13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K13&gt;0, '2.Compensation'!H12&gt;0, '4.Tenure'!H12&gt;0), "Pass", IF(AND('1.Number of Employees'!K13=0, '2.Compensation'!H12=0, '4.Tenure'!H12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K13&gt;0, '2.Compensation'!H13&gt;0, '4.Tenure'!H13&gt;0), "Pass", IF(AND('1.Number of Employees'!K13=0, '2.Compensation'!H13=0, '4.Tenure'!H13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L13&gt;0, '2.Compensation'!I12&gt;0, '4.Tenure'!I12&gt;0), "Pass", IF(AND('1.Number of Employees'!L13=0, '2.Compensation'!I12=0, '4.Tenure'!I12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L13&gt;0, '2.Compensation'!I13&gt;0, '4.Tenure'!I13&gt;0), "Pass", IF(AND('1.Number of Employees'!L13=0, '2.Compensation'!I13=0, '4.Tenure'!I13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M13&gt;0, '2.Compensation'!J12&gt;0, '4.Tenure'!J12&gt;0), "Pass", IF(AND('1.Number of Employees'!M13=0, '2.Compensation'!J12=0, '4.Tenure'!J12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M13&gt;0, '2.Compensation'!J13&gt;0, '4.Tenure'!J13&gt;0), "Pass", IF(AND('1.Number of Employees'!M13=0, '2.Compensation'!J13=0, '4.Tenure'!J13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N13&gt;0, '2.Compensation'!J12&gt;0, '4.Tenure'!J12&gt;0), "Pass", IF(AND('1.Number of Employees'!N13=0, '2.Compensation'!J12=0, '4.Tenure'!J12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N13&gt;0, '2.Compensation'!J13&gt;0, '4.Tenure'!J13&gt;0), "Pass", IF(AND('1.Number of Employees'!N13=0, '2.Compensation'!J13=0, '4.Tenure'!J13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O13&gt;0, '2.Compensation'!K12&gt;0, '4.Tenure'!K12&gt;0), "Pass", IF(AND('1.Number of Employees'!O13=0, '2.Compensation'!K12=0, '4.Tenure'!K12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O13&gt;0, '2.Compensation'!K13&gt;0, '4.Tenure'!K13&gt;0), "Pass", IF(AND('1.Number of Employees'!O13=0, '2.Compensation'!K13=0, '4.Tenure'!K13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P13&gt;0, '2.Compensation'!L12&gt;0, '4.Tenure'!L12&gt;0), "Pass", IF(AND('1.Number of Employees'!P13=0, '2.Compensation'!L12=0, '4.Tenure'!L12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P13&gt;0, '2.Compensation'!L13&gt;0, '4.Tenure'!L13&gt;0), "Pass", IF(AND('1.Number of Employees'!P13=0, '2.Compensation'!L13=0, '4.Tenure'!L13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q13&gt;0, '2.Compensation'!L12&gt;0, '4.Tenure'!L12&gt;0), "Pass", IF(AND('1.Number of Employees'!Q13=0, '2.Compensation'!L12=0, '4.Tenure'!L12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q13&gt;0, '2.Compensation'!L13&gt;0, '4.Tenure'!L13&gt;0), "Pass", IF(AND('1.Number of Employees'!Q13=0, '2.Compensation'!L13=0, '4.Tenure'!L13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R13&gt;0, '2.Compensation'!M12&gt;0, '4.Tenure'!M12&gt;0), "Pass", IF(AND('1.Number of Employees'!R13=0, '2.Compensation'!M12=0, '4.Tenure'!M12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R13&gt;0, '2.Compensation'!M13&gt;0, '4.Tenure'!M13&gt;0), "Pass", IF(AND('1.Number of Employees'!R13=0, '2.Compensation'!M13=0, '4.Tenure'!M13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S13&gt;0, '2.Compensation'!N12&gt;0, '4.Tenure'!N12&gt;0), "Pass", IF(AND('1.Number of Employees'!S13=0, '2.Compensation'!N12=0, '4.Tenure'!N12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S13&gt;0, '2.Compensation'!N13&gt;0, '4.Tenure'!N13&gt;0), "Pass", IF(AND('1.Number of Employees'!S13=0, '2.Compensation'!N13=0, '4.Tenure'!N13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T13&gt;0, '2.Compensation'!N12&gt;0, '4.Tenure'!N12&gt;0), "Pass", IF(AND('1.Number of Employees'!T13=0, '2.Compensation'!N12=0, '4.Tenure'!N12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T13&gt;0, '2.Compensation'!N13&gt;0, '4.Tenure'!N13&gt;0), "Pass", IF(AND('1.Number of Employees'!T13=0, '2.Compensation'!N13=0, '4.Tenure'!N13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U13&gt;0, '2.Compensation'!O12&gt;0, '4.Tenure'!O12&gt;0), "Pass", IF(AND('1.Number of Employees'!U13=0, '2.Compensation'!O12=0, '4.Tenure'!O12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U13&gt;0, '2.Compensation'!O13&gt;0, '4.Tenure'!O13&gt;0), "Pass", IF(AND('1.Number of Employees'!U13=0, '2.Compensation'!O13=0, '4.Tenure'!O13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V13&gt;0, '2.Compensation'!P12&gt;0, '4.Tenure'!P12&gt;0), "Pass", IF(AND('1.Number of Employees'!V13=0, '2.Compensation'!P12=0, '4.Tenure'!P12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V13&gt;0, '2.Compensation'!P13&gt;0, '4.Tenure'!P13&gt;0), "Pass", IF(AND('1.Number of Employees'!V13=0, '2.Compensation'!P13=0, '4.Tenure'!P13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W13&gt;0, '2.Compensation'!P12&gt;0, '4.Tenure'!P12&gt;0), "Pass", IF(AND('1.Number of Employees'!W13=0, '2.Compensation'!P12=0, '4.Tenure'!P12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W13&gt;0, '2.Compensation'!P13&gt;0, '4.Tenure'!P13&gt;0), "Pass", IF(AND('1.Number of Employees'!W13=0, '2.Compensation'!P13=0, '4.Tenure'!P13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X13" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X13&gt;0, '2.Compensation'!Q12&gt;0, '4.Tenure'!Q12&gt;0), "Pass", IF(AND('1.Number of Employees'!X13=0, '2.Compensation'!Q12=0, '4.Tenure'!Q12=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X13&gt;0, '2.Compensation'!Q13&gt;0, '4.Tenure'!Q13&gt;0), "Pass", IF(AND('1.Number of Employees'!X13=0, '2.Compensation'!Q13=0, '4.Tenure'!Q13=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y13" s="27" t="s">
@@ -6392,95 +6476,95 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B14&gt;0, '2.Compensation'!B13&gt;0, '4.Tenure'!B13&gt;0), "Pass", IF(AND('1.Number of Employees'!B14=0, '2.Compensation'!B13=0, '4.Tenure'!B13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B14&gt;0, '2.Compensation'!B14&gt;0, '4.Tenure'!B14&gt;0), "Pass", IF(AND('1.Number of Employees'!B14=0, '2.Compensation'!B14=0, '4.Tenure'!B14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C14&gt;0, '2.Compensation'!C13&gt;0, '4.Tenure'!C13&gt;0), "Pass", IF(AND('1.Number of Employees'!C14=0, '2.Compensation'!C13=0, '4.Tenure'!C13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C14&gt;0, '2.Compensation'!C14&gt;0, '4.Tenure'!C14&gt;0), "Pass", IF(AND('1.Number of Employees'!C14=0, '2.Compensation'!C14=0, '4.Tenure'!C14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D14&gt;0, '2.Compensation'!D13&gt;0, '4.Tenure'!D13&gt;0), "Pass", IF(AND('1.Number of Employees'!D14=0, '2.Compensation'!D13=0, '4.Tenure'!D13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D14&gt;0, '2.Compensation'!D14&gt;0, '4.Tenure'!D14&gt;0), "Pass", IF(AND('1.Number of Employees'!D14=0, '2.Compensation'!D14=0, '4.Tenure'!D14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E14&gt;0, '2.Compensation'!D13&gt;0, '4.Tenure'!D13&gt;0), "Pass", IF(AND('1.Number of Employees'!E14=0, '2.Compensation'!D13=0, '4.Tenure'!D13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E14&gt;0, '2.Compensation'!D14&gt;0, '4.Tenure'!D14&gt;0), "Pass", IF(AND('1.Number of Employees'!E14=0, '2.Compensation'!D14=0, '4.Tenure'!D14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F14&gt;0, '2.Compensation'!E13&gt;0, '4.Tenure'!E13&gt;0), "Pass", IF(AND('1.Number of Employees'!F14=0, '2.Compensation'!E13=0, '4.Tenure'!E13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F14&gt;0, '2.Compensation'!E14&gt;0, '4.Tenure'!E14&gt;0), "Pass", IF(AND('1.Number of Employees'!F14=0, '2.Compensation'!E14=0, '4.Tenure'!E14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G14&gt;0, '2.Compensation'!F13&gt;0, '4.Tenure'!F13&gt;0), "Pass", IF(AND('1.Number of Employees'!G14=0, '2.Compensation'!F13=0, '4.Tenure'!F13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G14&gt;0, '2.Compensation'!F14&gt;0, '4.Tenure'!F14&gt;0), "Pass", IF(AND('1.Number of Employees'!G14=0, '2.Compensation'!F14=0, '4.Tenure'!F14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H14&gt;0, '2.Compensation'!F13&gt;0, '4.Tenure'!F13&gt;0), "Pass", IF(AND('1.Number of Employees'!H14=0, '2.Compensation'!F13=0, '4.Tenure'!F13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H14&gt;0, '2.Compensation'!F14&gt;0, '4.Tenure'!F14&gt;0), "Pass", IF(AND('1.Number of Employees'!H14=0, '2.Compensation'!F14=0, '4.Tenure'!F14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I14&gt;0, '2.Compensation'!G13&gt;0, '4.Tenure'!G13&gt;0), "Pass", IF(AND('1.Number of Employees'!I14=0, '2.Compensation'!G13=0, '4.Tenure'!G13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I14&gt;0, '2.Compensation'!G14&gt;0, '4.Tenure'!G14&gt;0), "Pass", IF(AND('1.Number of Employees'!I14=0, '2.Compensation'!G14=0, '4.Tenure'!G14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J14&gt;0, '2.Compensation'!H13&gt;0, '4.Tenure'!H13&gt;0), "Pass", IF(AND('1.Number of Employees'!J14=0, '2.Compensation'!H13=0, '4.Tenure'!H13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J14&gt;0, '2.Compensation'!H14&gt;0, '4.Tenure'!H14&gt;0), "Pass", IF(AND('1.Number of Employees'!J14=0, '2.Compensation'!H14=0, '4.Tenure'!H14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K14&gt;0, '2.Compensation'!H13&gt;0, '4.Tenure'!H13&gt;0), "Pass", IF(AND('1.Number of Employees'!K14=0, '2.Compensation'!H13=0, '4.Tenure'!H13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K14&gt;0, '2.Compensation'!H14&gt;0, '4.Tenure'!H14&gt;0), "Pass", IF(AND('1.Number of Employees'!K14=0, '2.Compensation'!H14=0, '4.Tenure'!H14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L14&gt;0, '2.Compensation'!I13&gt;0, '4.Tenure'!I13&gt;0), "Pass", IF(AND('1.Number of Employees'!L14=0, '2.Compensation'!I13=0, '4.Tenure'!I13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L14&gt;0, '2.Compensation'!I14&gt;0, '4.Tenure'!I14&gt;0), "Pass", IF(AND('1.Number of Employees'!L14=0, '2.Compensation'!I14=0, '4.Tenure'!I14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M14&gt;0, '2.Compensation'!J13&gt;0, '4.Tenure'!J13&gt;0), "Pass", IF(AND('1.Number of Employees'!M14=0, '2.Compensation'!J13=0, '4.Tenure'!J13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M14&gt;0, '2.Compensation'!J14&gt;0, '4.Tenure'!J14&gt;0), "Pass", IF(AND('1.Number of Employees'!M14=0, '2.Compensation'!J14=0, '4.Tenure'!J14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N14&gt;0, '2.Compensation'!J13&gt;0, '4.Tenure'!J13&gt;0), "Pass", IF(AND('1.Number of Employees'!N14=0, '2.Compensation'!J13=0, '4.Tenure'!J13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N14&gt;0, '2.Compensation'!J14&gt;0, '4.Tenure'!J14&gt;0), "Pass", IF(AND('1.Number of Employees'!N14=0, '2.Compensation'!J14=0, '4.Tenure'!J14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O14&gt;0, '2.Compensation'!K13&gt;0, '4.Tenure'!K13&gt;0), "Pass", IF(AND('1.Number of Employees'!O14=0, '2.Compensation'!K13=0, '4.Tenure'!K13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O14&gt;0, '2.Compensation'!K14&gt;0, '4.Tenure'!K14&gt;0), "Pass", IF(AND('1.Number of Employees'!O14=0, '2.Compensation'!K14=0, '4.Tenure'!K14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P14&gt;0, '2.Compensation'!L13&gt;0, '4.Tenure'!L13&gt;0), "Pass", IF(AND('1.Number of Employees'!P14=0, '2.Compensation'!L13=0, '4.Tenure'!L13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P14&gt;0, '2.Compensation'!L14&gt;0, '4.Tenure'!L14&gt;0), "Pass", IF(AND('1.Number of Employees'!P14=0, '2.Compensation'!L14=0, '4.Tenure'!L14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q14&gt;0, '2.Compensation'!L13&gt;0, '4.Tenure'!L13&gt;0), "Pass", IF(AND('1.Number of Employees'!Q14=0, '2.Compensation'!L13=0, '4.Tenure'!L13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q14&gt;0, '2.Compensation'!L14&gt;0, '4.Tenure'!L14&gt;0), "Pass", IF(AND('1.Number of Employees'!Q14=0, '2.Compensation'!L14=0, '4.Tenure'!L14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R14&gt;0, '2.Compensation'!M13&gt;0, '4.Tenure'!M13&gt;0), "Pass", IF(AND('1.Number of Employees'!R14=0, '2.Compensation'!M13=0, '4.Tenure'!M13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R14&gt;0, '2.Compensation'!M14&gt;0, '4.Tenure'!M14&gt;0), "Pass", IF(AND('1.Number of Employees'!R14=0, '2.Compensation'!M14=0, '4.Tenure'!M14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S14&gt;0, '2.Compensation'!N13&gt;0, '4.Tenure'!N13&gt;0), "Pass", IF(AND('1.Number of Employees'!S14=0, '2.Compensation'!N13=0, '4.Tenure'!N13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S14&gt;0, '2.Compensation'!N14&gt;0, '4.Tenure'!N14&gt;0), "Pass", IF(AND('1.Number of Employees'!S14=0, '2.Compensation'!N14=0, '4.Tenure'!N14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T14&gt;0, '2.Compensation'!N13&gt;0, '4.Tenure'!N13&gt;0), "Pass", IF(AND('1.Number of Employees'!T14=0, '2.Compensation'!N13=0, '4.Tenure'!N13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T14&gt;0, '2.Compensation'!N14&gt;0, '4.Tenure'!N14&gt;0), "Pass", IF(AND('1.Number of Employees'!T14=0, '2.Compensation'!N14=0, '4.Tenure'!N14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U14&gt;0, '2.Compensation'!O13&gt;0, '4.Tenure'!O13&gt;0), "Pass", IF(AND('1.Number of Employees'!U14=0, '2.Compensation'!O13=0, '4.Tenure'!O13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U14&gt;0, '2.Compensation'!O14&gt;0, '4.Tenure'!O14&gt;0), "Pass", IF(AND('1.Number of Employees'!U14=0, '2.Compensation'!O14=0, '4.Tenure'!O14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V14&gt;0, '2.Compensation'!P13&gt;0, '4.Tenure'!P13&gt;0), "Pass", IF(AND('1.Number of Employees'!V14=0, '2.Compensation'!P13=0, '4.Tenure'!P13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V14&gt;0, '2.Compensation'!P14&gt;0, '4.Tenure'!P14&gt;0), "Pass", IF(AND('1.Number of Employees'!V14=0, '2.Compensation'!P14=0, '4.Tenure'!P14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W14&gt;0, '2.Compensation'!P13&gt;0, '4.Tenure'!P13&gt;0), "Pass", IF(AND('1.Number of Employees'!W14=0, '2.Compensation'!P13=0, '4.Tenure'!P13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W14&gt;0, '2.Compensation'!P14&gt;0, '4.Tenure'!P14&gt;0), "Pass", IF(AND('1.Number of Employees'!W14=0, '2.Compensation'!P14=0, '4.Tenure'!P14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X14" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X14&gt;0, '2.Compensation'!Q13&gt;0, '4.Tenure'!Q13&gt;0), "Pass", IF(AND('1.Number of Employees'!X14=0, '2.Compensation'!Q13=0, '4.Tenure'!Q13=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X14&gt;0, '2.Compensation'!Q14&gt;0, '4.Tenure'!Q14&gt;0), "Pass", IF(AND('1.Number of Employees'!X14=0, '2.Compensation'!Q14=0, '4.Tenure'!Q14=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y14" s="27" t="s">
@@ -6492,95 +6576,95 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B15&gt;0, '2.Compensation'!B14&gt;0, '4.Tenure'!B14&gt;0), "Pass", IF(AND('1.Number of Employees'!B15=0, '2.Compensation'!B14=0, '4.Tenure'!B14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B15&gt;0, '2.Compensation'!B15&gt;0, '4.Tenure'!B15&gt;0), "Pass", IF(AND('1.Number of Employees'!B15=0, '2.Compensation'!B15=0, '4.Tenure'!B15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C15&gt;0, '2.Compensation'!C14&gt;0, '4.Tenure'!C14&gt;0), "Pass", IF(AND('1.Number of Employees'!C15=0, '2.Compensation'!C14=0, '4.Tenure'!C14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C15&gt;0, '2.Compensation'!C15&gt;0, '4.Tenure'!C15&gt;0), "Pass", IF(AND('1.Number of Employees'!C15=0, '2.Compensation'!C15=0, '4.Tenure'!C15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D15&gt;0, '2.Compensation'!D14&gt;0, '4.Tenure'!D14&gt;0), "Pass", IF(AND('1.Number of Employees'!D15=0, '2.Compensation'!D14=0, '4.Tenure'!D14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D15&gt;0, '2.Compensation'!D15&gt;0, '4.Tenure'!D15&gt;0), "Pass", IF(AND('1.Number of Employees'!D15=0, '2.Compensation'!D15=0, '4.Tenure'!D15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E15&gt;0, '2.Compensation'!D14&gt;0, '4.Tenure'!D14&gt;0), "Pass", IF(AND('1.Number of Employees'!E15=0, '2.Compensation'!D14=0, '4.Tenure'!D14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E15&gt;0, '2.Compensation'!D15&gt;0, '4.Tenure'!D15&gt;0), "Pass", IF(AND('1.Number of Employees'!E15=0, '2.Compensation'!D15=0, '4.Tenure'!D15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F15&gt;0, '2.Compensation'!E14&gt;0, '4.Tenure'!E14&gt;0), "Pass", IF(AND('1.Number of Employees'!F15=0, '2.Compensation'!E14=0, '4.Tenure'!E14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F15&gt;0, '2.Compensation'!E15&gt;0, '4.Tenure'!E15&gt;0), "Pass", IF(AND('1.Number of Employees'!F15=0, '2.Compensation'!E15=0, '4.Tenure'!E15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G15&gt;0, '2.Compensation'!F14&gt;0, '4.Tenure'!F14&gt;0), "Pass", IF(AND('1.Number of Employees'!G15=0, '2.Compensation'!F14=0, '4.Tenure'!F14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G15&gt;0, '2.Compensation'!F15&gt;0, '4.Tenure'!F15&gt;0), "Pass", IF(AND('1.Number of Employees'!G15=0, '2.Compensation'!F15=0, '4.Tenure'!F15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H15&gt;0, '2.Compensation'!F14&gt;0, '4.Tenure'!F14&gt;0), "Pass", IF(AND('1.Number of Employees'!H15=0, '2.Compensation'!F14=0, '4.Tenure'!F14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H15&gt;0, '2.Compensation'!F15&gt;0, '4.Tenure'!F15&gt;0), "Pass", IF(AND('1.Number of Employees'!H15=0, '2.Compensation'!F15=0, '4.Tenure'!F15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I15&gt;0, '2.Compensation'!G14&gt;0, '4.Tenure'!G14&gt;0), "Pass", IF(AND('1.Number of Employees'!I15=0, '2.Compensation'!G14=0, '4.Tenure'!G14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I15&gt;0, '2.Compensation'!G15&gt;0, '4.Tenure'!G15&gt;0), "Pass", IF(AND('1.Number of Employees'!I15=0, '2.Compensation'!G15=0, '4.Tenure'!G15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J15&gt;0, '2.Compensation'!H14&gt;0, '4.Tenure'!H14&gt;0), "Pass", IF(AND('1.Number of Employees'!J15=0, '2.Compensation'!H14=0, '4.Tenure'!H14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J15&gt;0, '2.Compensation'!H15&gt;0, '4.Tenure'!H15&gt;0), "Pass", IF(AND('1.Number of Employees'!J15=0, '2.Compensation'!H15=0, '4.Tenure'!H15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K15&gt;0, '2.Compensation'!H14&gt;0, '4.Tenure'!H14&gt;0), "Pass", IF(AND('1.Number of Employees'!K15=0, '2.Compensation'!H14=0, '4.Tenure'!H14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K15&gt;0, '2.Compensation'!H15&gt;0, '4.Tenure'!H15&gt;0), "Pass", IF(AND('1.Number of Employees'!K15=0, '2.Compensation'!H15=0, '4.Tenure'!H15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L15&gt;0, '2.Compensation'!I14&gt;0, '4.Tenure'!I14&gt;0), "Pass", IF(AND('1.Number of Employees'!L15=0, '2.Compensation'!I14=0, '4.Tenure'!I14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L15&gt;0, '2.Compensation'!I15&gt;0, '4.Tenure'!I15&gt;0), "Pass", IF(AND('1.Number of Employees'!L15=0, '2.Compensation'!I15=0, '4.Tenure'!I15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M15&gt;0, '2.Compensation'!J14&gt;0, '4.Tenure'!J14&gt;0), "Pass", IF(AND('1.Number of Employees'!M15=0, '2.Compensation'!J14=0, '4.Tenure'!J14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M15&gt;0, '2.Compensation'!J15&gt;0, '4.Tenure'!J15&gt;0), "Pass", IF(AND('1.Number of Employees'!M15=0, '2.Compensation'!J15=0, '4.Tenure'!J15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N15&gt;0, '2.Compensation'!J14&gt;0, '4.Tenure'!J14&gt;0), "Pass", IF(AND('1.Number of Employees'!N15=0, '2.Compensation'!J14=0, '4.Tenure'!J14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N15&gt;0, '2.Compensation'!J15&gt;0, '4.Tenure'!J15&gt;0), "Pass", IF(AND('1.Number of Employees'!N15=0, '2.Compensation'!J15=0, '4.Tenure'!J15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O15&gt;0, '2.Compensation'!K14&gt;0, '4.Tenure'!K14&gt;0), "Pass", IF(AND('1.Number of Employees'!O15=0, '2.Compensation'!K14=0, '4.Tenure'!K14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O15&gt;0, '2.Compensation'!K15&gt;0, '4.Tenure'!K15&gt;0), "Pass", IF(AND('1.Number of Employees'!O15=0, '2.Compensation'!K15=0, '4.Tenure'!K15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P15&gt;0, '2.Compensation'!L14&gt;0, '4.Tenure'!L14&gt;0), "Pass", IF(AND('1.Number of Employees'!P15=0, '2.Compensation'!L14=0, '4.Tenure'!L14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P15&gt;0, '2.Compensation'!L15&gt;0, '4.Tenure'!L15&gt;0), "Pass", IF(AND('1.Number of Employees'!P15=0, '2.Compensation'!L15=0, '4.Tenure'!L15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q15&gt;0, '2.Compensation'!L14&gt;0, '4.Tenure'!L14&gt;0), "Pass", IF(AND('1.Number of Employees'!Q15=0, '2.Compensation'!L14=0, '4.Tenure'!L14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q15&gt;0, '2.Compensation'!L15&gt;0, '4.Tenure'!L15&gt;0), "Pass", IF(AND('1.Number of Employees'!Q15=0, '2.Compensation'!L15=0, '4.Tenure'!L15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R15&gt;0, '2.Compensation'!M14&gt;0, '4.Tenure'!M14&gt;0), "Pass", IF(AND('1.Number of Employees'!R15=0, '2.Compensation'!M14=0, '4.Tenure'!M14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R15&gt;0, '2.Compensation'!M15&gt;0, '4.Tenure'!M15&gt;0), "Pass", IF(AND('1.Number of Employees'!R15=0, '2.Compensation'!M15=0, '4.Tenure'!M15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S15&gt;0, '2.Compensation'!N14&gt;0, '4.Tenure'!N14&gt;0), "Pass", IF(AND('1.Number of Employees'!S15=0, '2.Compensation'!N14=0, '4.Tenure'!N14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S15&gt;0, '2.Compensation'!N15&gt;0, '4.Tenure'!N15&gt;0), "Pass", IF(AND('1.Number of Employees'!S15=0, '2.Compensation'!N15=0, '4.Tenure'!N15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T15&gt;0, '2.Compensation'!N14&gt;0, '4.Tenure'!N14&gt;0), "Pass", IF(AND('1.Number of Employees'!T15=0, '2.Compensation'!N14=0, '4.Tenure'!N14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T15&gt;0, '2.Compensation'!N15&gt;0, '4.Tenure'!N15&gt;0), "Pass", IF(AND('1.Number of Employees'!T15=0, '2.Compensation'!N15=0, '4.Tenure'!N15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U15&gt;0, '2.Compensation'!O14&gt;0, '4.Tenure'!O14&gt;0), "Pass", IF(AND('1.Number of Employees'!U15=0, '2.Compensation'!O14=0, '4.Tenure'!O14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U15&gt;0, '2.Compensation'!O15&gt;0, '4.Tenure'!O15&gt;0), "Pass", IF(AND('1.Number of Employees'!U15=0, '2.Compensation'!O15=0, '4.Tenure'!O15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V15&gt;0, '2.Compensation'!P14&gt;0, '4.Tenure'!P14&gt;0), "Pass", IF(AND('1.Number of Employees'!V15=0, '2.Compensation'!P14=0, '4.Tenure'!P14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V15&gt;0, '2.Compensation'!P15&gt;0, '4.Tenure'!P15&gt;0), "Pass", IF(AND('1.Number of Employees'!V15=0, '2.Compensation'!P15=0, '4.Tenure'!P15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W15&gt;0, '2.Compensation'!P14&gt;0, '4.Tenure'!P14&gt;0), "Pass", IF(AND('1.Number of Employees'!W15=0, '2.Compensation'!P14=0, '4.Tenure'!P14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W15&gt;0, '2.Compensation'!P15&gt;0, '4.Tenure'!P15&gt;0), "Pass", IF(AND('1.Number of Employees'!W15=0, '2.Compensation'!P15=0, '4.Tenure'!P15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X15" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X15&gt;0, '2.Compensation'!Q14&gt;0, '4.Tenure'!Q14&gt;0), "Pass", IF(AND('1.Number of Employees'!X15=0, '2.Compensation'!Q14=0, '4.Tenure'!Q14=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X15&gt;0, '2.Compensation'!Q15&gt;0, '4.Tenure'!Q15&gt;0), "Pass", IF(AND('1.Number of Employees'!X15=0, '2.Compensation'!Q15=0, '4.Tenure'!Q15=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y15" s="27" t="s">
@@ -6592,95 +6676,95 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!B16&gt;0, '2.Compensation'!B15&gt;0, '4.Tenure'!B15&gt;0), "Pass", IF(AND('1.Number of Employees'!B16=0, '2.Compensation'!B15=0, '4.Tenure'!B15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!B16&gt;0, '2.Compensation'!B16&gt;0, '4.Tenure'!B16&gt;0), "Pass", IF(AND('1.Number of Employees'!B16=0, '2.Compensation'!B16=0, '4.Tenure'!B16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!C16&gt;0, '2.Compensation'!C15&gt;0, '4.Tenure'!C15&gt;0), "Pass", IF(AND('1.Number of Employees'!C16=0, '2.Compensation'!C15=0, '4.Tenure'!C15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!C16&gt;0, '2.Compensation'!C16&gt;0, '4.Tenure'!C16&gt;0), "Pass", IF(AND('1.Number of Employees'!C16=0, '2.Compensation'!C16=0, '4.Tenure'!C16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!D16&gt;0, '2.Compensation'!D15&gt;0, '4.Tenure'!D15&gt;0), "Pass", IF(AND('1.Number of Employees'!D16=0, '2.Compensation'!D15=0, '4.Tenure'!D15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!D16&gt;0, '2.Compensation'!D16&gt;0, '4.Tenure'!D16&gt;0), "Pass", IF(AND('1.Number of Employees'!D16=0, '2.Compensation'!D16=0, '4.Tenure'!D16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="E16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!E16&gt;0, '2.Compensation'!D15&gt;0, '4.Tenure'!D15&gt;0), "Pass", IF(AND('1.Number of Employees'!E16=0, '2.Compensation'!D15=0, '4.Tenure'!D15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!E16&gt;0, '2.Compensation'!D16&gt;0, '4.Tenure'!D16&gt;0), "Pass", IF(AND('1.Number of Employees'!E16=0, '2.Compensation'!D16=0, '4.Tenure'!D16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="F16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!F16&gt;0, '2.Compensation'!E15&gt;0, '4.Tenure'!E15&gt;0), "Pass", IF(AND('1.Number of Employees'!F16=0, '2.Compensation'!E15=0, '4.Tenure'!E15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!F16&gt;0, '2.Compensation'!E16&gt;0, '4.Tenure'!E16&gt;0), "Pass", IF(AND('1.Number of Employees'!F16=0, '2.Compensation'!E16=0, '4.Tenure'!E16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="G16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!G16&gt;0, '2.Compensation'!F15&gt;0, '4.Tenure'!F15&gt;0), "Pass", IF(AND('1.Number of Employees'!G16=0, '2.Compensation'!F15=0, '4.Tenure'!F15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!G16&gt;0, '2.Compensation'!F16&gt;0, '4.Tenure'!F16&gt;0), "Pass", IF(AND('1.Number of Employees'!G16=0, '2.Compensation'!F16=0, '4.Tenure'!F16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="H16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!H16&gt;0, '2.Compensation'!F15&gt;0, '4.Tenure'!F15&gt;0), "Pass", IF(AND('1.Number of Employees'!H16=0, '2.Compensation'!F15=0, '4.Tenure'!F15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!H16&gt;0, '2.Compensation'!F16&gt;0, '4.Tenure'!F16&gt;0), "Pass", IF(AND('1.Number of Employees'!H16=0, '2.Compensation'!F16=0, '4.Tenure'!F16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="I16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!I16&gt;0, '2.Compensation'!G15&gt;0, '4.Tenure'!G15&gt;0), "Pass", IF(AND('1.Number of Employees'!I16=0, '2.Compensation'!G15=0, '4.Tenure'!G15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!I16&gt;0, '2.Compensation'!G16&gt;0, '4.Tenure'!G16&gt;0), "Pass", IF(AND('1.Number of Employees'!I16=0, '2.Compensation'!G16=0, '4.Tenure'!G16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!J16&gt;0, '2.Compensation'!H15&gt;0, '4.Tenure'!H15&gt;0), "Pass", IF(AND('1.Number of Employees'!J16=0, '2.Compensation'!H15=0, '4.Tenure'!H15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!J16&gt;0, '2.Compensation'!H16&gt;0, '4.Tenure'!H16&gt;0), "Pass", IF(AND('1.Number of Employees'!J16=0, '2.Compensation'!H16=0, '4.Tenure'!H16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!K16&gt;0, '2.Compensation'!H15&gt;0, '4.Tenure'!H15&gt;0), "Pass", IF(AND('1.Number of Employees'!K16=0, '2.Compensation'!H15=0, '4.Tenure'!H15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!K16&gt;0, '2.Compensation'!H16&gt;0, '4.Tenure'!H16&gt;0), "Pass", IF(AND('1.Number of Employees'!K16=0, '2.Compensation'!H16=0, '4.Tenure'!H16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="L16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!L16&gt;0, '2.Compensation'!I15&gt;0, '4.Tenure'!I15&gt;0), "Pass", IF(AND('1.Number of Employees'!L16=0, '2.Compensation'!I15=0, '4.Tenure'!I15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!L16&gt;0, '2.Compensation'!I16&gt;0, '4.Tenure'!I16&gt;0), "Pass", IF(AND('1.Number of Employees'!L16=0, '2.Compensation'!I16=0, '4.Tenure'!I16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="M16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!M16&gt;0, '2.Compensation'!J15&gt;0, '4.Tenure'!J15&gt;0), "Pass", IF(AND('1.Number of Employees'!M16=0, '2.Compensation'!J15=0, '4.Tenure'!J15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!M16&gt;0, '2.Compensation'!J16&gt;0, '4.Tenure'!J16&gt;0), "Pass", IF(AND('1.Number of Employees'!M16=0, '2.Compensation'!J16=0, '4.Tenure'!J16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!N16&gt;0, '2.Compensation'!J15&gt;0, '4.Tenure'!J15&gt;0), "Pass", IF(AND('1.Number of Employees'!N16=0, '2.Compensation'!J15=0, '4.Tenure'!J15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!N16&gt;0, '2.Compensation'!J16&gt;0, '4.Tenure'!J16&gt;0), "Pass", IF(AND('1.Number of Employees'!N16=0, '2.Compensation'!J16=0, '4.Tenure'!J16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="O16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!O16&gt;0, '2.Compensation'!K15&gt;0, '4.Tenure'!K15&gt;0), "Pass", IF(AND('1.Number of Employees'!O16=0, '2.Compensation'!K15=0, '4.Tenure'!K15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!O16&gt;0, '2.Compensation'!K16&gt;0, '4.Tenure'!K16&gt;0), "Pass", IF(AND('1.Number of Employees'!O16=0, '2.Compensation'!K16=0, '4.Tenure'!K16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="P16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!P16&gt;0, '2.Compensation'!L15&gt;0, '4.Tenure'!L15&gt;0), "Pass", IF(AND('1.Number of Employees'!P16=0, '2.Compensation'!L15=0, '4.Tenure'!L15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!P16&gt;0, '2.Compensation'!L16&gt;0, '4.Tenure'!L16&gt;0), "Pass", IF(AND('1.Number of Employees'!P16=0, '2.Compensation'!L16=0, '4.Tenure'!L16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Q16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!Q16&gt;0, '2.Compensation'!L15&gt;0, '4.Tenure'!L15&gt;0), "Pass", IF(AND('1.Number of Employees'!Q16=0, '2.Compensation'!L15=0, '4.Tenure'!L15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!Q16&gt;0, '2.Compensation'!L16&gt;0, '4.Tenure'!L16&gt;0), "Pass", IF(AND('1.Number of Employees'!Q16=0, '2.Compensation'!L16=0, '4.Tenure'!L16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="R16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!R16&gt;0, '2.Compensation'!M15&gt;0, '4.Tenure'!M15&gt;0), "Pass", IF(AND('1.Number of Employees'!R16=0, '2.Compensation'!M15=0, '4.Tenure'!M15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!R16&gt;0, '2.Compensation'!M16&gt;0, '4.Tenure'!M16&gt;0), "Pass", IF(AND('1.Number of Employees'!R16=0, '2.Compensation'!M16=0, '4.Tenure'!M16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="S16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!S16&gt;0, '2.Compensation'!N15&gt;0, '4.Tenure'!N15&gt;0), "Pass", IF(AND('1.Number of Employees'!S16=0, '2.Compensation'!N15=0, '4.Tenure'!N15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!S16&gt;0, '2.Compensation'!N16&gt;0, '4.Tenure'!N16&gt;0), "Pass", IF(AND('1.Number of Employees'!S16=0, '2.Compensation'!N16=0, '4.Tenure'!N16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="T16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!T16&gt;0, '2.Compensation'!N15&gt;0, '4.Tenure'!N15&gt;0), "Pass", IF(AND('1.Number of Employees'!T16=0, '2.Compensation'!N15=0, '4.Tenure'!N15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!T16&gt;0, '2.Compensation'!N16&gt;0, '4.Tenure'!N16&gt;0), "Pass", IF(AND('1.Number of Employees'!T16=0, '2.Compensation'!N16=0, '4.Tenure'!N16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="U16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!U16&gt;0, '2.Compensation'!O15&gt;0, '4.Tenure'!O15&gt;0), "Pass", IF(AND('1.Number of Employees'!U16=0, '2.Compensation'!O15=0, '4.Tenure'!O15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!U16&gt;0, '2.Compensation'!O16&gt;0, '4.Tenure'!O16&gt;0), "Pass", IF(AND('1.Number of Employees'!U16=0, '2.Compensation'!O16=0, '4.Tenure'!O16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="V16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!V16&gt;0, '2.Compensation'!P15&gt;0, '4.Tenure'!P15&gt;0), "Pass", IF(AND('1.Number of Employees'!V16=0, '2.Compensation'!P15=0, '4.Tenure'!P15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!V16&gt;0, '2.Compensation'!P16&gt;0, '4.Tenure'!P16&gt;0), "Pass", IF(AND('1.Number of Employees'!V16=0, '2.Compensation'!P16=0, '4.Tenure'!P16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="W16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!W16&gt;0, '2.Compensation'!P15&gt;0, '4.Tenure'!P15&gt;0), "Pass", IF(AND('1.Number of Employees'!W16=0, '2.Compensation'!P15=0, '4.Tenure'!P15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!W16&gt;0, '2.Compensation'!P16&gt;0, '4.Tenure'!P16&gt;0), "Pass", IF(AND('1.Number of Employees'!W16=0, '2.Compensation'!P16=0, '4.Tenure'!P16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="X16" s="10" t="str">
-        <f>IF(AND('1.Number of Employees'!X16&gt;0, '2.Compensation'!Q15&gt;0, '4.Tenure'!Q15&gt;0), "Pass", IF(AND('1.Number of Employees'!X16=0, '2.Compensation'!Q15=0, '4.Tenure'!Q15=0),"Pass", "Fail"))</f>
+        <f>IF(AND('1.Number of Employees'!X16&gt;0, '2.Compensation'!Q16&gt;0, '4.Tenure'!Q16&gt;0), "Pass", IF(AND('1.Number of Employees'!X16=0, '2.Compensation'!Q16=0, '4.Tenure'!Q16=0),"Pass", "Fail"))</f>
         <v>Pass</v>
       </c>
       <c r="Y16" s="27" t="s">
@@ -6712,16 +6796,16 @@
     <mergeCell ref="T5:V5"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:X16">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",B7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"""Fail"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
